--- a/test.xlsx
+++ b/test.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI Projects\MIDI_Factory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81BC8909-7048-4041-8AC1-B230179A3378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A02842-554A-4E90-B342-A99E70BDEC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4305" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4305" yWindow="-16320" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="raw" sheetId="4" r:id="rId1"/>
+    <sheet name="test" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="26">
   <si>
     <t>note</t>
   </si>
@@ -42,9 +43,6 @@
   </si>
   <si>
     <t>duration</t>
-  </si>
-  <si>
-    <t>Velocity</t>
   </si>
   <si>
     <t>theme_start</t>
@@ -72,6 +70,48 @@
   </si>
   <si>
     <t>slur</t>
+  </si>
+  <si>
+    <t>velocity</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>qd</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>ed</t>
+  </si>
+  <si>
+    <t>q^s</t>
+  </si>
+  <si>
+    <t>hd</t>
+  </si>
+  <si>
+    <t>ht</t>
+  </si>
+  <si>
+    <t>qt</t>
+  </si>
+  <si>
+    <t>et</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>st</t>
   </si>
 </sst>
 </file>
@@ -116,77 +156,54 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="عادي" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="14">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -202,22 +219,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{4E1CAD52-3578-4896-995D-E4227518F46C}" name="MyTable" displayName="MyTable" ref="A1:M184" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:M184" xr:uid="{4E1CAD52-3578-4896-995D-E4227518F46C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="102" xr:uid="{58B1C75A-1194-4A5B-99BC-CC06308ADC89}" name="MyTable" displayName="MyTable" ref="A1:G210" totalsRowShown="0">
+  <autoFilter ref="A1:G210" xr:uid="{58B1C75A-1194-4A5B-99BC-CC06308ADC89}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{B3A8F908-01E5-483E-830C-E82F5ABFD6B8}" name=" "/>
+    <tableColumn id="2" xr3:uid="{80C1EBA1-3649-4EDD-9972-CF5E17EDCFA4}" name="note"/>
+    <tableColumn id="3" xr3:uid="{27AA8933-E88B-464D-A141-A678579A017C}" name="interval"/>
+    <tableColumn id="4" xr3:uid="{A880CB6D-B773-4221-A9B1-8BF6B68E1238}" name="note_start_time"/>
+    <tableColumn id="5" xr3:uid="{C1F284A5-8F9F-4215-97D7-57715522C4CC}" name="duration"/>
+    <tableColumn id="6" xr3:uid="{0C521FFE-98D5-4405-AE9E-75B9452707FD}" name="slur"/>
+    <tableColumn id="7" xr3:uid="{808E8249-EC2A-4A94-839A-585E60B5AE10}" name="velocity"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="103" xr:uid="{11442251-8309-4BF2-8927-7C27B1D233E0}" name="MyTable" displayName="MyTable_1" ref="A1:M184" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="A1:M184" xr:uid="{11442251-8309-4BF2-8927-7C27B1D233E0}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{8BBB2898-76BA-400B-9691-75C21FB15AE0}" name=" " dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{D4B61DB7-A58E-4A9F-BF75-DDFA01678E6A}" name="note" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{D621AC0E-DB75-4BFD-BFDF-285204D345C4}" name="interval" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{10008B98-B903-4F1F-A057-F2BBA81A4756}" name="note_start_time" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{BD62018B-D929-4FE1-8584-636CBE4BB484}" name="duration" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{14993AC9-8CAE-466C-99D7-02CD27787E21}" name="slur" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{68F44D0F-2499-4453-B68A-5F08BBF386B2}" name="Velocity" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{C1F62529-C541-4626-966B-6D14929B238D}" name="theme_start" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{BCC565F7-D1F3-4D69-A3C5-83C807CFAF66}" name="phrase_start" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{2EA451AC-B6A9-4005-835D-71DDCAF0D487}" name="Vibrato" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{7C0796EC-0DE2-4005-B5B4-11825C8B2F30}" name="Portato" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{EDF9E091-22A4-473B-B531-04618E96F0B4}" name="Gliss" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{5237E547-4AA1-4A14-A7BA-994147989FA9}" name="trill" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{D41E8A44-CEB9-4F8F-BECC-868CDFA709B7}" name=" " dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{3CC2D025-2808-41F9-998D-7BE72BD379C9}" name="note" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{5064F583-E670-4928-B157-BAB4F74CEA8D}" name="interval" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{3D6C0A10-6E97-4767-AB78-2A3715DE6B1D}" name="note_start_time" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{717BBC00-DB74-4A52-8DA3-F027FFFC9E0E}" name="duration" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{4017FF2B-9E76-4CFD-BC07-8307766A3F4D}" name="slur" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{7B01D5D7-40D3-4473-B4A9-E9132E9E4CF1}" name="velocity" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{B5FB45FB-006D-42A1-BAA7-5287C78A64AE}" name="Gliss" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{BECE51EC-9F6B-4C94-84B7-58B6BD89CD63}" name="theme_start" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{D0CE77AD-EE7F-412D-A0FE-15B1FD239D39}" name="phrase_start" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{AADD9D83-1C3E-4850-97AA-EE5CF7D43DA4}" name="Vibrato" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{1190DDE3-42CF-4247-9ADB-7B9BCDED57C5}" name="Portato" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{B47144FA-6355-42B2-9451-3A7B4687A37B}" name="trill" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -509,89 +542,4159 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8692CAC-9E9F-45B1-AEB0-5C3F03847D7C}">
+  <dimension ref="A1:G210"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>52</v>
+      </c>
+      <c r="D4">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>55</v>
+      </c>
+      <c r="D5">
+        <v>62</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>60</v>
+      </c>
+      <c r="D6">
+        <v>67</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>77</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>80</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>48</v>
+      </c>
+      <c r="D9">
+        <v>115</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>51.5</v>
+      </c>
+      <c r="D10">
+        <v>120</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>55</v>
+      </c>
+      <c r="D11">
+        <v>139</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>60</v>
+      </c>
+      <c r="D12">
+        <v>144</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>48</v>
+      </c>
+      <c r="D13">
+        <v>154</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>52</v>
+      </c>
+      <c r="D14">
+        <v>158</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>52</v>
+      </c>
+      <c r="D15">
+        <v>160</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>55</v>
+      </c>
+      <c r="D16">
+        <v>168</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>60</v>
+      </c>
+      <c r="D17">
+        <v>182</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>48</v>
+      </c>
+      <c r="D18">
+        <v>192</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>52</v>
+      </c>
+      <c r="D19">
+        <v>199</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>52</v>
+      </c>
+      <c r="D20">
+        <v>200</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>211</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>60</v>
+      </c>
+      <c r="D22">
+        <v>221</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>48</v>
+      </c>
+      <c r="D23">
+        <v>226</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>52</v>
+      </c>
+      <c r="D24">
+        <v>240</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>55</v>
+      </c>
+      <c r="D25">
+        <v>245</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>60</v>
+      </c>
+      <c r="D26">
+        <v>259</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>48</v>
+      </c>
+      <c r="D27">
+        <v>269</v>
+      </c>
+      <c r="E27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>52</v>
+      </c>
+      <c r="D28">
+        <v>278</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>52</v>
+      </c>
+      <c r="D29">
+        <v>280</v>
+      </c>
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>55</v>
+      </c>
+      <c r="D30">
+        <v>288</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>60</v>
+      </c>
+      <c r="D31">
+        <v>298</v>
+      </c>
+      <c r="E31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="D32">
+        <v>307</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="D33">
+        <v>320</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="D34">
+        <v>360</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>52</v>
+      </c>
+      <c r="D35">
+        <v>394</v>
+      </c>
+      <c r="E35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>52</v>
+      </c>
+      <c r="D36">
+        <v>400</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>55</v>
+      </c>
+      <c r="D37">
+        <v>403</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>60</v>
+      </c>
+      <c r="D38">
+        <v>413</v>
+      </c>
+      <c r="E38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>48</v>
+      </c>
+      <c r="D39">
+        <v>422</v>
+      </c>
+      <c r="E39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>52</v>
+      </c>
+      <c r="D40">
+        <v>432</v>
+      </c>
+      <c r="E40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>52</v>
+      </c>
+      <c r="D41">
+        <v>440</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>55</v>
+      </c>
+      <c r="D42">
+        <v>442</v>
+      </c>
+      <c r="E42" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>60</v>
+      </c>
+      <c r="D43">
+        <v>451</v>
+      </c>
+      <c r="E43" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>48</v>
+      </c>
+      <c r="D44">
+        <v>461</v>
+      </c>
+      <c r="E44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>52</v>
+      </c>
+      <c r="D45">
+        <v>470</v>
+      </c>
+      <c r="E45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>55</v>
+      </c>
+      <c r="D46">
+        <v>480</v>
+      </c>
+      <c r="E46" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>60</v>
+      </c>
+      <c r="D47">
+        <v>490</v>
+      </c>
+      <c r="E47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>48</v>
+      </c>
+      <c r="D48">
+        <v>499</v>
+      </c>
+      <c r="E48" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>52</v>
+      </c>
+      <c r="D49">
+        <v>509</v>
+      </c>
+      <c r="E49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>55</v>
+      </c>
+      <c r="D50">
+        <v>518</v>
+      </c>
+      <c r="E50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>55</v>
+      </c>
+      <c r="D51">
+        <v>520</v>
+      </c>
+      <c r="E51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>60</v>
+      </c>
+      <c r="D52">
+        <v>528</v>
+      </c>
+      <c r="E52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>48</v>
+      </c>
+      <c r="D53">
+        <v>538</v>
+      </c>
+      <c r="E53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="D54">
+        <v>547</v>
+      </c>
+      <c r="E54" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="D55">
+        <v>560</v>
+      </c>
+      <c r="E55" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>56</v>
+      </c>
+      <c r="D56">
+        <v>566</v>
+      </c>
+      <c r="E56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="D57">
+        <v>571</v>
+      </c>
+      <c r="E57" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="D58">
+        <v>600</v>
+      </c>
+      <c r="E58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>60</v>
+      </c>
+      <c r="D59">
+        <v>605</v>
+      </c>
+      <c r="E59" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>48</v>
+      </c>
+      <c r="D60">
+        <v>614</v>
+      </c>
+      <c r="E60" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>52</v>
+      </c>
+      <c r="D61">
+        <v>624</v>
+      </c>
+      <c r="E61" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>55</v>
+      </c>
+      <c r="D62">
+        <v>634</v>
+      </c>
+      <c r="E62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>55</v>
+      </c>
+      <c r="D63">
+        <v>640</v>
+      </c>
+      <c r="E63" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>60</v>
+      </c>
+      <c r="D64">
+        <v>643</v>
+      </c>
+      <c r="E64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>48</v>
+      </c>
+      <c r="D65">
+        <v>653</v>
+      </c>
+      <c r="E65" t="s">
+        <v>22</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="D66">
+        <v>662</v>
+      </c>
+      <c r="E66" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="D67">
+        <v>680</v>
+      </c>
+      <c r="E67" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>60</v>
+      </c>
+      <c r="D68">
+        <v>682</v>
+      </c>
+      <c r="E68" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>48</v>
+      </c>
+      <c r="D69">
+        <v>691</v>
+      </c>
+      <c r="E69" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>52</v>
+      </c>
+      <c r="D70">
+        <v>701</v>
+      </c>
+      <c r="E70" t="s">
+        <v>22</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>55</v>
+      </c>
+      <c r="D71">
+        <v>710</v>
+      </c>
+      <c r="E71" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>60</v>
+      </c>
+      <c r="D72">
+        <v>720</v>
+      </c>
+      <c r="E72" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="D73">
+        <v>730</v>
+      </c>
+      <c r="E73" t="s">
+        <v>17</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>55</v>
+      </c>
+      <c r="D74">
+        <v>749</v>
+      </c>
+      <c r="E74" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>60</v>
+      </c>
+      <c r="D75">
+        <v>758</v>
+      </c>
+      <c r="E75" t="s">
+        <v>25</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>60</v>
+      </c>
+      <c r="D76">
+        <v>760</v>
+      </c>
+      <c r="E76" t="s">
+        <v>22</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>48</v>
+      </c>
+      <c r="D77">
+        <v>768</v>
+      </c>
+      <c r="E77" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="D78">
+        <v>778</v>
+      </c>
+      <c r="E78" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="D79">
+        <v>800</v>
+      </c>
+      <c r="E79" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>48</v>
+      </c>
+      <c r="D80">
+        <v>806</v>
+      </c>
+      <c r="E80" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="D81">
+        <v>816</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="D82">
+        <v>840</v>
+      </c>
+      <c r="E82" t="s">
+        <v>23</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>48</v>
+      </c>
+      <c r="D83">
+        <v>845</v>
+      </c>
+      <c r="E83" t="s">
+        <v>22</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>52</v>
+      </c>
+      <c r="D84">
+        <v>854</v>
+      </c>
+      <c r="E84" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>55</v>
+      </c>
+      <c r="D85">
+        <v>864</v>
+      </c>
+      <c r="E85" t="s">
+        <v>18</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>60</v>
+      </c>
+      <c r="D86">
+        <v>874</v>
+      </c>
+      <c r="E86" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>60</v>
+      </c>
+      <c r="D87">
+        <v>880</v>
+      </c>
+      <c r="E87" t="s">
+        <v>25</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>48</v>
+      </c>
+      <c r="D88">
+        <v>883</v>
+      </c>
+      <c r="E88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>52</v>
+      </c>
+      <c r="D89">
+        <v>893</v>
+      </c>
+      <c r="E89" t="s">
+        <v>22</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>55</v>
+      </c>
+      <c r="D90">
+        <v>902</v>
+      </c>
+      <c r="E90" t="s">
+        <v>18</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>60</v>
+      </c>
+      <c r="D91">
+        <v>912</v>
+      </c>
+      <c r="E91" t="s">
+        <v>22</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>60</v>
+      </c>
+      <c r="D92">
+        <v>920</v>
+      </c>
+      <c r="E92" t="s">
+        <v>25</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>48</v>
+      </c>
+      <c r="D93">
+        <v>922</v>
+      </c>
+      <c r="E93" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>52</v>
+      </c>
+      <c r="D94">
+        <v>934</v>
+      </c>
+      <c r="E94" t="s">
+        <v>19</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>55</v>
+      </c>
+      <c r="D95">
+        <v>947</v>
+      </c>
+      <c r="E95" t="s">
+        <v>19</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>48</v>
+      </c>
+      <c r="D96">
+        <v>960</v>
+      </c>
+      <c r="E96" t="s">
+        <v>16</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>52</v>
+      </c>
+      <c r="D97">
+        <v>966</v>
+      </c>
+      <c r="E97" t="s">
+        <v>16</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>55</v>
+      </c>
+      <c r="D98">
+        <v>973</v>
+      </c>
+      <c r="E98" t="s">
+        <v>16</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>48</v>
+      </c>
+      <c r="D99">
+        <v>979</v>
+      </c>
+      <c r="E99" t="s">
+        <v>25</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>52</v>
+      </c>
+      <c r="D100">
+        <v>982</v>
+      </c>
+      <c r="E100" t="s">
+        <v>25</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>55</v>
+      </c>
+      <c r="D101">
+        <v>986</v>
+      </c>
+      <c r="E101" t="s">
+        <v>25</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>48</v>
+      </c>
+      <c r="D102">
+        <v>989</v>
+      </c>
+      <c r="E102" t="s">
+        <v>25</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>52</v>
+      </c>
+      <c r="D103">
+        <v>992</v>
+      </c>
+      <c r="E103" t="s">
+        <v>25</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>55</v>
+      </c>
+      <c r="D104">
+        <v>995</v>
+      </c>
+      <c r="E104" t="s">
+        <v>25</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>48</v>
+      </c>
+      <c r="D105">
+        <v>998</v>
+      </c>
+      <c r="E105" t="s">
+        <v>25</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>48</v>
+      </c>
+      <c r="D106">
+        <v>1000</v>
+      </c>
+      <c r="E106" t="s">
+        <v>22</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="D107">
+        <v>1008</v>
+      </c>
+      <c r="E107" t="s">
+        <v>20</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>48</v>
+      </c>
+      <c r="D108">
+        <v>1037</v>
+      </c>
+      <c r="E108" t="s">
+        <v>25</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>48</v>
+      </c>
+      <c r="D109">
+        <v>1040</v>
+      </c>
+      <c r="E109" t="s">
+        <v>25</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>52</v>
+      </c>
+      <c r="D110">
+        <v>1042</v>
+      </c>
+      <c r="E110" t="s">
+        <v>25</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>55</v>
+      </c>
+      <c r="D111">
+        <v>1046</v>
+      </c>
+      <c r="E111" t="s">
+        <v>23</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>60</v>
+      </c>
+      <c r="D112">
+        <v>1051</v>
+      </c>
+      <c r="E112" t="s">
+        <v>23</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>48</v>
+      </c>
+      <c r="D113">
+        <v>1056</v>
+      </c>
+      <c r="E113" t="s">
+        <v>23</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>52</v>
+      </c>
+      <c r="D114">
+        <v>1061</v>
+      </c>
+      <c r="E114" t="s">
+        <v>23</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>59</v>
+      </c>
+      <c r="D115">
+        <v>1066</v>
+      </c>
+      <c r="E115" t="s">
+        <v>25</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>60</v>
+      </c>
+      <c r="D116">
+        <v>1070</v>
+      </c>
+      <c r="E116" t="s">
+        <v>23</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>48</v>
+      </c>
+      <c r="D117">
+        <v>1075</v>
+      </c>
+      <c r="E117" t="s">
+        <v>23</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>53</v>
+      </c>
+      <c r="D118">
+        <v>1080</v>
+      </c>
+      <c r="E118" t="s">
+        <v>23</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>52</v>
+      </c>
+      <c r="D119">
+        <v>1085</v>
+      </c>
+      <c r="E119" t="s">
+        <v>23</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>57</v>
+      </c>
+      <c r="D120">
+        <v>1090</v>
+      </c>
+      <c r="E120" t="s">
+        <v>25</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>55</v>
+      </c>
+      <c r="D121">
+        <v>1094</v>
+      </c>
+      <c r="E121" t="s">
+        <v>23</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>59</v>
+      </c>
+      <c r="D122">
+        <v>1099</v>
+      </c>
+      <c r="E122" t="s">
+        <v>23</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>57</v>
+      </c>
+      <c r="D123">
+        <v>1104</v>
+      </c>
+      <c r="E123" t="s">
+        <v>23</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>60</v>
+      </c>
+      <c r="D124">
+        <v>1109</v>
+      </c>
+      <c r="E124" t="s">
+        <v>23</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>48</v>
+      </c>
+      <c r="D125">
+        <v>1114</v>
+      </c>
+      <c r="E125" t="s">
+        <v>25</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>50</v>
+      </c>
+      <c r="D126">
+        <v>1116</v>
+      </c>
+      <c r="E126" t="s">
+        <v>25</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>52</v>
+      </c>
+      <c r="D127">
+        <v>1118</v>
+      </c>
+      <c r="E127" t="s">
+        <v>25</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>53</v>
+      </c>
+      <c r="D128">
+        <v>1121</v>
+      </c>
+      <c r="E128" t="s">
+        <v>25</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>55</v>
+      </c>
+      <c r="D129">
+        <v>1123</v>
+      </c>
+      <c r="E129" t="s">
+        <v>25</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>57</v>
+      </c>
+      <c r="D130">
+        <v>1126</v>
+      </c>
+      <c r="E130" t="s">
+        <v>25</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>59</v>
+      </c>
+      <c r="D131">
+        <v>1128</v>
+      </c>
+      <c r="E131" t="s">
+        <v>25</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>60</v>
+      </c>
+      <c r="D132">
+        <v>1130</v>
+      </c>
+      <c r="E132" t="s">
+        <v>25</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>62</v>
+      </c>
+      <c r="D133">
+        <v>1133</v>
+      </c>
+      <c r="E133" t="s">
+        <v>25</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>64</v>
+      </c>
+      <c r="D134">
+        <v>1135</v>
+      </c>
+      <c r="E134" t="s">
+        <v>25</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>65</v>
+      </c>
+      <c r="D135">
+        <v>1138</v>
+      </c>
+      <c r="E135" t="s">
+        <v>25</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>67</v>
+      </c>
+      <c r="D136">
+        <v>1140</v>
+      </c>
+      <c r="E136" t="s">
+        <v>25</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>69</v>
+      </c>
+      <c r="D137">
+        <v>1142</v>
+      </c>
+      <c r="E137" t="s">
+        <v>25</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>71</v>
+      </c>
+      <c r="D138">
+        <v>1145</v>
+      </c>
+      <c r="E138" t="s">
+        <v>25</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>72</v>
+      </c>
+      <c r="D139">
+        <v>1147</v>
+      </c>
+      <c r="E139" t="s">
+        <v>25</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="D140">
+        <v>1150</v>
+      </c>
+      <c r="E140" t="s">
+        <v>25</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>48</v>
+      </c>
+      <c r="D141">
+        <v>1152</v>
+      </c>
+      <c r="E141" t="s">
+        <v>25</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>47</v>
+      </c>
+      <c r="D142">
+        <v>1154</v>
+      </c>
+      <c r="E142" t="s">
+        <v>25</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>46</v>
+      </c>
+      <c r="D143">
+        <v>1157</v>
+      </c>
+      <c r="E143" t="s">
+        <v>25</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>45</v>
+      </c>
+      <c r="D144">
+        <v>1159</v>
+      </c>
+      <c r="E144" t="s">
+        <v>25</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>45</v>
+      </c>
+      <c r="D145">
+        <v>1160</v>
+      </c>
+      <c r="E145" t="s">
+        <v>25</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="G145">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>44</v>
+      </c>
+      <c r="D146">
+        <v>1162</v>
+      </c>
+      <c r="E146" t="s">
+        <v>25</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>43</v>
+      </c>
+      <c r="D147">
+        <v>1164</v>
+      </c>
+      <c r="E147" t="s">
+        <v>25</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>42</v>
+      </c>
+      <c r="D148">
+        <v>1166</v>
+      </c>
+      <c r="E148" t="s">
+        <v>25</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>41</v>
+      </c>
+      <c r="D149">
+        <v>1169</v>
+      </c>
+      <c r="E149" t="s">
+        <v>25</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>40</v>
+      </c>
+      <c r="D150">
+        <v>1171</v>
+      </c>
+      <c r="E150" t="s">
+        <v>25</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>41</v>
+      </c>
+      <c r="D151">
+        <v>1174</v>
+      </c>
+      <c r="E151" t="s">
+        <v>25</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>43</v>
+      </c>
+      <c r="D152">
+        <v>1176</v>
+      </c>
+      <c r="E152" t="s">
+        <v>25</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>45</v>
+      </c>
+      <c r="D153">
+        <v>1178</v>
+      </c>
+      <c r="E153" t="s">
+        <v>25</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>47</v>
+      </c>
+      <c r="D154">
+        <v>1181</v>
+      </c>
+      <c r="E154" t="s">
+        <v>25</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>48</v>
+      </c>
+      <c r="D155">
+        <v>1183</v>
+      </c>
+      <c r="E155" t="s">
+        <v>25</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>50</v>
+      </c>
+      <c r="D156">
+        <v>1186</v>
+      </c>
+      <c r="E156" t="s">
+        <v>25</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>49</v>
+      </c>
+      <c r="D157">
+        <v>1188</v>
+      </c>
+      <c r="E157" t="s">
+        <v>25</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>48</v>
+      </c>
+      <c r="D158">
+        <v>1190</v>
+      </c>
+      <c r="E158" t="s">
+        <v>18</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>52</v>
+      </c>
+      <c r="D159">
+        <v>1200</v>
+      </c>
+      <c r="E159" t="s">
+        <v>18</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>55</v>
+      </c>
+      <c r="D160">
+        <v>1210</v>
+      </c>
+      <c r="E160" t="s">
+        <v>22</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>60</v>
+      </c>
+      <c r="D161">
+        <v>1219</v>
+      </c>
+      <c r="E161" t="s">
+        <v>18</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>48</v>
+      </c>
+      <c r="D162">
+        <v>1229</v>
+      </c>
+      <c r="E162" t="s">
+        <v>22</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>52</v>
+      </c>
+      <c r="D163">
+        <v>1238</v>
+      </c>
+      <c r="E163" t="s">
+        <v>25</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>52</v>
+      </c>
+      <c r="D164">
+        <v>1240</v>
+      </c>
+      <c r="E164" t="s">
+        <v>22</v>
+      </c>
+      <c r="F164">
+        <v>1</v>
+      </c>
+      <c r="G164">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>55</v>
+      </c>
+      <c r="D165">
+        <v>1248</v>
+      </c>
+      <c r="E165" t="s">
+        <v>18</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>60</v>
+      </c>
+      <c r="D166">
+        <v>1258</v>
+      </c>
+      <c r="E166" t="s">
+        <v>22</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>48</v>
+      </c>
+      <c r="D167">
+        <v>1267</v>
+      </c>
+      <c r="E167" t="s">
+        <v>18</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>52</v>
+      </c>
+      <c r="D168">
+        <v>1277</v>
+      </c>
+      <c r="E168" t="s">
+        <v>25</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>52</v>
+      </c>
+      <c r="D169">
+        <v>1280</v>
+      </c>
+      <c r="E169" t="s">
+        <v>16</v>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+      <c r="G169">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>55</v>
+      </c>
+      <c r="D170">
+        <v>1286</v>
+      </c>
+      <c r="E170" t="s">
+        <v>18</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>60</v>
+      </c>
+      <c r="D171">
+        <v>1296</v>
+      </c>
+      <c r="E171" t="s">
+        <v>18</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>48</v>
+      </c>
+      <c r="D172">
+        <v>1306</v>
+      </c>
+      <c r="E172" t="s">
+        <v>22</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>52</v>
+      </c>
+      <c r="D173">
+        <v>1315</v>
+      </c>
+      <c r="E173" t="s">
+        <v>23</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>52</v>
+      </c>
+      <c r="D174">
+        <v>1320</v>
+      </c>
+      <c r="E174" t="s">
+        <v>23</v>
+      </c>
+      <c r="F174">
+        <v>1</v>
+      </c>
+      <c r="G174">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>55</v>
+      </c>
+      <c r="D175">
+        <v>1325</v>
+      </c>
+      <c r="E175" t="s">
+        <v>22</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>60</v>
+      </c>
+      <c r="D176">
+        <v>1334</v>
+      </c>
+      <c r="E176" t="s">
+        <v>18</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>48</v>
+      </c>
+      <c r="D177">
+        <v>1344</v>
+      </c>
+      <c r="E177" t="s">
+        <v>18</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>52</v>
+      </c>
+      <c r="D178">
+        <v>1354</v>
+      </c>
+      <c r="E178" t="s">
+        <v>16</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>52</v>
+      </c>
+      <c r="D179">
+        <v>1360</v>
+      </c>
+      <c r="E179" t="s">
+        <v>25</v>
+      </c>
+      <c r="F179">
+        <v>1</v>
+      </c>
+      <c r="G179">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>55</v>
+      </c>
+      <c r="D180">
+        <v>1363</v>
+      </c>
+      <c r="E180" t="s">
+        <v>18</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>60</v>
+      </c>
+      <c r="D181">
+        <v>1373</v>
+      </c>
+      <c r="E181" t="s">
+        <v>22</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>48</v>
+      </c>
+      <c r="D182">
+        <v>1382</v>
+      </c>
+      <c r="E182" t="s">
+        <v>18</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>52</v>
+      </c>
+      <c r="D183">
+        <v>1392</v>
+      </c>
+      <c r="E183" t="s">
+        <v>22</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>52</v>
+      </c>
+      <c r="D184">
+        <v>1400</v>
+      </c>
+      <c r="E184" t="s">
+        <v>25</v>
+      </c>
+      <c r="F184">
+        <v>1</v>
+      </c>
+      <c r="G184">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>55</v>
+      </c>
+      <c r="D185">
+        <v>1402</v>
+      </c>
+      <c r="E185" t="s">
+        <v>22</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>60</v>
+      </c>
+      <c r="D186">
+        <v>1411</v>
+      </c>
+      <c r="E186" t="s">
+        <v>18</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>48</v>
+      </c>
+      <c r="D187">
+        <v>1421</v>
+      </c>
+      <c r="E187" t="s">
+        <v>22</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>52</v>
+      </c>
+      <c r="D188">
+        <v>1430</v>
+      </c>
+      <c r="E188" t="s">
+        <v>18</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>55</v>
+      </c>
+      <c r="D189">
+        <v>1440</v>
+      </c>
+      <c r="E189" t="s">
+        <v>18</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>60</v>
+      </c>
+      <c r="D190">
+        <v>1450</v>
+      </c>
+      <c r="E190" t="s">
+        <v>22</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>48</v>
+      </c>
+      <c r="D191">
+        <v>1459</v>
+      </c>
+      <c r="E191" t="s">
+        <v>18</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>52</v>
+      </c>
+      <c r="D192">
+        <v>1469</v>
+      </c>
+      <c r="E192" t="s">
+        <v>22</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>55</v>
+      </c>
+      <c r="D193">
+        <v>1478</v>
+      </c>
+      <c r="E193" t="s">
+        <v>25</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>55</v>
+      </c>
+      <c r="D194">
+        <v>1480</v>
+      </c>
+      <c r="E194" t="s">
+        <v>22</v>
+      </c>
+      <c r="F194">
+        <v>1</v>
+      </c>
+      <c r="G194">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>60</v>
+      </c>
+      <c r="D195">
+        <v>1488</v>
+      </c>
+      <c r="E195" t="s">
+        <v>18</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>48</v>
+      </c>
+      <c r="D196">
+        <v>1498</v>
+      </c>
+      <c r="E196" t="s">
+        <v>22</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>52</v>
+      </c>
+      <c r="D197">
+        <v>1507</v>
+      </c>
+      <c r="E197" t="s">
+        <v>18</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>55</v>
+      </c>
+      <c r="D198">
+        <v>1517</v>
+      </c>
+      <c r="E198" t="s">
+        <v>25</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>55</v>
+      </c>
+      <c r="D199">
+        <v>1520</v>
+      </c>
+      <c r="E199" t="s">
+        <v>16</v>
+      </c>
+      <c r="F199">
+        <v>1</v>
+      </c>
+      <c r="G199">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>60</v>
+      </c>
+      <c r="D200">
+        <v>1526</v>
+      </c>
+      <c r="E200" t="s">
+        <v>18</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>48</v>
+      </c>
+      <c r="D201">
+        <v>1536</v>
+      </c>
+      <c r="E201" t="s">
+        <v>18</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>52</v>
+      </c>
+      <c r="D202">
+        <v>1546</v>
+      </c>
+      <c r="E202" t="s">
+        <v>22</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>55</v>
+      </c>
+      <c r="D203">
+        <v>1555</v>
+      </c>
+      <c r="E203" t="s">
+        <v>23</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+      <c r="G203">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>55</v>
+      </c>
+      <c r="D204">
+        <v>1560</v>
+      </c>
+      <c r="E204" t="s">
+        <v>23</v>
+      </c>
+      <c r="F204">
+        <v>1</v>
+      </c>
+      <c r="G204">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>60</v>
+      </c>
+      <c r="D205">
+        <v>1565</v>
+      </c>
+      <c r="E205" t="s">
+        <v>22</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>48</v>
+      </c>
+      <c r="D206">
+        <v>1574</v>
+      </c>
+      <c r="E206" t="s">
+        <v>18</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>52</v>
+      </c>
+      <c r="D207">
+        <v>1584</v>
+      </c>
+      <c r="E207" t="s">
+        <v>18</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="G207">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>55</v>
+      </c>
+      <c r="D208">
+        <v>1594</v>
+      </c>
+      <c r="E208" t="s">
+        <v>16</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+      <c r="G208">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>55</v>
+      </c>
+      <c r="D209">
+        <v>1600</v>
+      </c>
+      <c r="E209" t="s">
+        <v>25</v>
+      </c>
+      <c r="F209">
+        <v>1</v>
+      </c>
+      <c r="G209">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>60</v>
+      </c>
+      <c r="D210">
+        <v>1603</v>
+      </c>
+      <c r="E210" t="s">
+        <v>18</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD84E5A-1FD4-43E1-98FA-38EFDF047C5B}">
   <dimension ref="A1:M184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="7" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
       <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="1">
-        <v>384</v>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
+      <c r="G2" s="1"/>
       <c r="H2" s="1">
         <v>0</v>
       </c>
@@ -615,23 +4718,23 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
       <c r="D3" s="1">
         <v>384</v>
       </c>
-      <c r="E3" s="1">
-        <v>96</v>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
+      <c r="G3" s="1"/>
       <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
         <v>1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -653,11 +4756,12 @@
       <c r="B4" s="1">
         <v>52</v>
       </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1">
         <v>480</v>
       </c>
-      <c r="E4" s="1">
-        <v>144</v>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
@@ -697,8 +4801,8 @@
       <c r="D5" s="1">
         <v>624</v>
       </c>
-      <c r="E5" s="1">
-        <v>48</v>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -738,8 +4842,8 @@
       <c r="D6" s="1">
         <v>672</v>
       </c>
-      <c r="E6" s="1">
-        <v>96</v>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -770,18 +4874,18 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="1">
         <v>768</v>
       </c>
-      <c r="E7" s="1">
-        <v>384</v>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
+      <c r="G7" s="1"/>
       <c r="H7" s="1">
         <v>0</v>
       </c>
@@ -808,26 +4912,27 @@
       <c r="B8" s="1">
         <v>48</v>
       </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1">
         <v>1152</v>
       </c>
-      <c r="E8" s="1">
-        <v>48</v>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
         <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
@@ -852,14 +4957,14 @@
       <c r="D9" s="1">
         <v>1200</v>
       </c>
-      <c r="E9" s="1">
-        <v>192</v>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -893,14 +4998,14 @@
       <c r="D10" s="1">
         <v>1392</v>
       </c>
-      <c r="E10" s="1">
-        <v>48</v>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
@@ -934,14 +5039,14 @@
       <c r="D11" s="1">
         <v>1440</v>
       </c>
-      <c r="E11" s="1">
-        <v>96</v>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -975,14 +5080,14 @@
       <c r="D12" s="1">
         <v>1536</v>
       </c>
-      <c r="E12" s="1">
-        <v>48</v>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -1016,14 +5121,14 @@
       <c r="D13" s="1">
         <v>1584</v>
       </c>
-      <c r="E13" s="1">
-        <v>96</v>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H13" s="1">
         <v>0</v>
@@ -1057,14 +5162,14 @@
       <c r="D14" s="1">
         <v>1680</v>
       </c>
-      <c r="E14" s="1">
-        <v>144</v>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -1098,14 +5203,14 @@
       <c r="D15" s="1">
         <v>1824</v>
       </c>
-      <c r="E15" s="1">
-        <v>96</v>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
       </c>
       <c r="G15" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -1139,14 +5244,14 @@
       <c r="D16" s="1">
         <v>1920</v>
       </c>
-      <c r="E16" s="1">
-        <v>72</v>
+      <c r="E16" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H16" s="1">
         <v>0</v>
@@ -1180,14 +5285,14 @@
       <c r="D17" s="1">
         <v>1992</v>
       </c>
-      <c r="E17" s="1">
-        <v>120</v>
+      <c r="E17" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
       </c>
       <c r="G17" s="1">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H17" s="1">
         <v>0</v>
@@ -1212,18 +5317,18 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="1">
         <v>2112</v>
       </c>
-      <c r="E18" s="1">
-        <v>96</v>
+      <c r="E18" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
       </c>
+      <c r="G18" s="1"/>
       <c r="H18" s="1">
         <v>0</v>
       </c>
@@ -1256,17 +5361,17 @@
       <c r="D19" s="1">
         <v>2208</v>
       </c>
-      <c r="E19" s="1">
-        <v>48</v>
+      <c r="E19" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="1">
         <v>0</v>
@@ -1278,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="1">
         <v>0</v>
@@ -1297,14 +5402,14 @@
       <c r="D20" s="1">
         <v>2256</v>
       </c>
-      <c r="E20" s="1">
-        <v>48</v>
+      <c r="E20" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -1338,14 +5443,14 @@
       <c r="D21" s="1">
         <v>2304</v>
       </c>
-      <c r="E21" s="1">
-        <v>96</v>
+      <c r="E21" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
       </c>
       <c r="G21" s="1">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -1379,14 +5484,14 @@
       <c r="D22" s="1">
         <v>2400</v>
       </c>
-      <c r="E22" s="1">
-        <v>48</v>
+      <c r="E22" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F22" s="1">
         <v>0</v>
       </c>
       <c r="G22" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H22" s="1">
         <v>0</v>
@@ -1420,14 +5525,14 @@
       <c r="D23" s="1">
         <v>2448</v>
       </c>
-      <c r="E23" s="1">
-        <v>144</v>
+      <c r="E23" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
       </c>
       <c r="G23" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H23" s="1">
         <v>0</v>
@@ -1461,14 +5566,14 @@
       <c r="D24" s="1">
         <v>2592</v>
       </c>
-      <c r="E24" s="1">
-        <v>96</v>
+      <c r="E24" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F24" s="1">
         <v>0</v>
       </c>
       <c r="G24" s="1">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H24" s="1">
         <v>0</v>
@@ -1502,14 +5607,14 @@
       <c r="D25" s="1">
         <v>2688</v>
       </c>
-      <c r="E25" s="1">
-        <v>96</v>
+      <c r="E25" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
       </c>
       <c r="G25" s="1">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
@@ -1543,14 +5648,14 @@
       <c r="D26" s="1">
         <v>2784</v>
       </c>
-      <c r="E26" s="1">
-        <v>96</v>
+      <c r="E26" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
@@ -1584,14 +5689,14 @@
       <c r="D27" s="1">
         <v>2880</v>
       </c>
-      <c r="E27" s="1">
-        <v>96</v>
+      <c r="E27" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F27" s="1">
         <v>0</v>
       </c>
       <c r="G27" s="1">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
@@ -1625,14 +5730,14 @@
       <c r="D28" s="1">
         <v>2976</v>
       </c>
-      <c r="E28" s="1">
-        <v>96</v>
+      <c r="E28" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
       </c>
       <c r="G28" s="1">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="H28" s="1">
         <v>0</v>
@@ -1657,18 +5762,18 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="C29" s="1">
-        <v>0</v>
-      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
       <c r="D29" s="1">
         <v>3072</v>
       </c>
-      <c r="E29" s="1">
-        <v>384</v>
+      <c r="E29" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
       </c>
+      <c r="G29" s="1"/>
       <c r="H29" s="1">
         <v>0</v>
       </c>
@@ -1692,18 +5797,18 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="C30" s="1">
-        <v>0</v>
-      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
       <c r="D30" s="1">
         <v>3456</v>
       </c>
-      <c r="E30" s="1">
-        <v>384</v>
+      <c r="E30" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
       </c>
+      <c r="G30" s="1"/>
       <c r="H30" s="1">
         <v>0</v>
       </c>
@@ -1727,23 +5832,23 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
       <c r="D31" s="1">
         <v>3840</v>
       </c>
-      <c r="E31" s="1">
-        <v>96</v>
+      <c r="E31" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
       </c>
+      <c r="G31" s="1"/>
       <c r="H31" s="1">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
         <v>1</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0</v>
       </c>
       <c r="J31" s="1">
         <v>0</v>
@@ -1765,17 +5870,18 @@
       <c r="B32" s="1">
         <v>52</v>
       </c>
+      <c r="C32" s="1"/>
       <c r="D32" s="1">
         <v>3936</v>
       </c>
-      <c r="E32" s="1">
-        <v>96</v>
+      <c r="E32" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
       </c>
       <c r="G32" s="1">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H32" s="1">
         <v>0</v>
@@ -1809,14 +5915,14 @@
       <c r="D33" s="1">
         <v>4032</v>
       </c>
-      <c r="E33" s="1">
-        <v>96</v>
+      <c r="E33" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
       </c>
       <c r="G33" s="1">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="H33" s="1">
         <v>0</v>
@@ -1850,14 +5956,14 @@
       <c r="D34" s="1">
         <v>4128</v>
       </c>
-      <c r="E34" s="1">
-        <v>96</v>
+      <c r="E34" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
       </c>
       <c r="G34" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H34" s="1">
         <v>0</v>
@@ -1891,14 +5997,14 @@
       <c r="D35" s="1">
         <v>4224</v>
       </c>
-      <c r="E35" s="1">
-        <v>96</v>
+      <c r="E35" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
       </c>
       <c r="G35" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H35" s="1">
         <v>0</v>
@@ -1932,14 +6038,14 @@
       <c r="D36" s="1">
         <v>4320</v>
       </c>
-      <c r="E36" s="1">
-        <v>96</v>
+      <c r="E36" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
       </c>
       <c r="G36" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H36" s="1">
         <v>0</v>
@@ -1973,14 +6079,14 @@
       <c r="D37" s="1">
         <v>4416</v>
       </c>
-      <c r="E37" s="1">
-        <v>96</v>
+      <c r="E37" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
       </c>
       <c r="G37" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H37" s="1">
         <v>0</v>
@@ -2014,14 +6120,14 @@
       <c r="D38" s="1">
         <v>4512</v>
       </c>
-      <c r="E38" s="1">
-        <v>96</v>
+      <c r="E38" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
       </c>
       <c r="G38" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H38" s="1">
         <v>0</v>
@@ -2055,14 +6161,14 @@
       <c r="D39" s="1">
         <v>4608</v>
       </c>
-      <c r="E39" s="1">
-        <v>96</v>
+      <c r="E39" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
       </c>
       <c r="G39" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H39" s="1">
         <v>0</v>
@@ -2096,14 +6202,14 @@
       <c r="D40" s="1">
         <v>4704</v>
       </c>
-      <c r="E40" s="1">
-        <v>96</v>
+      <c r="E40" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
       </c>
       <c r="G40" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H40" s="1">
         <v>0</v>
@@ -2137,14 +6243,14 @@
       <c r="D41" s="1">
         <v>4800</v>
       </c>
-      <c r="E41" s="1">
-        <v>96</v>
+      <c r="E41" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
       </c>
       <c r="G41" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H41" s="1">
         <v>0</v>
@@ -2178,14 +6284,14 @@
       <c r="D42" s="1">
         <v>4896</v>
       </c>
-      <c r="E42" s="1">
-        <v>96</v>
+      <c r="E42" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
       </c>
       <c r="G42" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H42" s="1">
         <v>0</v>
@@ -2219,14 +6325,14 @@
       <c r="D43" s="1">
         <v>4992</v>
       </c>
-      <c r="E43" s="1">
-        <v>96</v>
+      <c r="E43" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
       </c>
       <c r="G43" s="1">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="H43" s="1">
         <v>0</v>
@@ -2260,14 +6366,14 @@
       <c r="D44" s="1">
         <v>5088</v>
       </c>
-      <c r="E44" s="1">
-        <v>96</v>
+      <c r="E44" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
       </c>
       <c r="G44" s="1">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="H44" s="1">
         <v>0</v>
@@ -2301,14 +6407,14 @@
       <c r="D45" s="1">
         <v>5184</v>
       </c>
-      <c r="E45" s="1">
-        <v>96</v>
+      <c r="E45" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
       </c>
       <c r="G45" s="1">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="H45" s="1">
         <v>0</v>
@@ -2342,14 +6448,14 @@
       <c r="D46" s="1">
         <v>5280</v>
       </c>
-      <c r="E46" s="1">
-        <v>96</v>
+      <c r="E46" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
       </c>
       <c r="G46" s="1">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="H46" s="1">
         <v>0</v>
@@ -2383,14 +6489,14 @@
       <c r="D47" s="1">
         <v>5376</v>
       </c>
-      <c r="E47" s="1">
-        <v>96</v>
+      <c r="E47" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
       </c>
       <c r="G47" s="1">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="H47" s="1">
         <v>0</v>
@@ -2415,18 +6521,18 @@
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="C48" s="1">
-        <v>0</v>
-      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
       <c r="D48" s="1">
         <v>5472</v>
       </c>
-      <c r="E48" s="1">
-        <v>192</v>
+      <c r="E48" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
       </c>
+      <c r="G48" s="1"/>
       <c r="H48" s="1">
         <v>0</v>
       </c>
@@ -2459,14 +6565,14 @@
       <c r="D49" s="1">
         <v>5664</v>
       </c>
-      <c r="E49" s="1">
-        <v>48</v>
+      <c r="E49" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
       </c>
       <c r="G49" s="1">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="H49" s="1">
         <v>0</v>
@@ -2491,18 +6597,18 @@
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="C50" s="1">
-        <v>0</v>
-      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
       <c r="D50" s="1">
         <v>5712</v>
       </c>
-      <c r="E50" s="1">
-        <v>48</v>
+      <c r="E50" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
       </c>
+      <c r="G50" s="1"/>
       <c r="H50" s="1">
         <v>0</v>
       </c>
@@ -2526,18 +6632,18 @@
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="C51" s="1">
-        <v>0</v>
-      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
       <c r="D51" s="1">
         <v>5760</v>
       </c>
-      <c r="E51" s="1">
-        <v>288</v>
+      <c r="E51" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
       </c>
+      <c r="G51" s="1"/>
       <c r="H51" s="1">
         <v>0</v>
       </c>
@@ -2570,14 +6676,14 @@
       <c r="D52" s="1">
         <v>6048</v>
       </c>
-      <c r="E52" s="1">
-        <v>96</v>
+      <c r="E52" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
       </c>
       <c r="G52" s="1">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="H52" s="1">
         <v>0</v>
@@ -2611,14 +6717,14 @@
       <c r="D53" s="1">
         <v>6144</v>
       </c>
-      <c r="E53" s="1">
-        <v>96</v>
+      <c r="E53" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
       </c>
       <c r="G53" s="1">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="H53" s="1">
         <v>0</v>
@@ -2652,14 +6758,14 @@
       <c r="D54" s="1">
         <v>6240</v>
       </c>
-      <c r="E54" s="1">
-        <v>96</v>
+      <c r="E54" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
       </c>
       <c r="G54" s="1">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="H54" s="1">
         <v>0</v>
@@ -2693,14 +6799,14 @@
       <c r="D55" s="1">
         <v>6336</v>
       </c>
-      <c r="E55" s="1">
-        <v>96</v>
+      <c r="E55" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
       </c>
       <c r="G55" s="1">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="H55" s="1">
         <v>0</v>
@@ -2734,14 +6840,14 @@
       <c r="D56" s="1">
         <v>6432</v>
       </c>
-      <c r="E56" s="1">
-        <v>96</v>
+      <c r="E56" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
       </c>
       <c r="G56" s="1">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="H56" s="1">
         <v>0</v>
@@ -2775,14 +6881,14 @@
       <c r="D57" s="1">
         <v>6528</v>
       </c>
-      <c r="E57" s="1">
-        <v>96</v>
+      <c r="E57" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
       </c>
       <c r="G57" s="1">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="H57" s="1">
         <v>0</v>
@@ -2807,18 +6913,18 @@
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="C58" s="1">
-        <v>0</v>
-      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
       <c r="D58" s="1">
         <v>6624</v>
       </c>
-      <c r="E58" s="1">
-        <v>192</v>
+      <c r="E58" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
       </c>
+      <c r="G58" s="1"/>
       <c r="H58" s="1">
         <v>0</v>
       </c>
@@ -2851,14 +6957,14 @@
       <c r="D59" s="1">
         <v>6816</v>
       </c>
-      <c r="E59" s="1">
-        <v>96</v>
+      <c r="E59" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
       </c>
       <c r="G59" s="1">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="H59" s="1">
         <v>0</v>
@@ -2870,10 +6976,10 @@
         <v>0</v>
       </c>
       <c r="K59" s="1">
+        <v>0</v>
+      </c>
+      <c r="L59" s="1">
         <v>1</v>
-      </c>
-      <c r="L59" s="1">
-        <v>0</v>
       </c>
       <c r="M59" s="1">
         <v>0</v>
@@ -2892,14 +6998,14 @@
       <c r="D60" s="1">
         <v>6912</v>
       </c>
-      <c r="E60" s="1">
-        <v>96</v>
+      <c r="E60" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
       </c>
       <c r="G60" s="1">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="H60" s="1">
         <v>0</v>
@@ -2933,14 +7039,14 @@
       <c r="D61" s="1">
         <v>7008</v>
       </c>
-      <c r="E61" s="1">
-        <v>96</v>
+      <c r="E61" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
       </c>
       <c r="G61" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="H61" s="1">
         <v>0</v>
@@ -2974,14 +7080,14 @@
       <c r="D62" s="1">
         <v>7104</v>
       </c>
-      <c r="E62" s="1">
-        <v>96</v>
+      <c r="E62" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
       </c>
       <c r="G62" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H62" s="1">
         <v>0</v>
@@ -3015,14 +7121,14 @@
       <c r="D63" s="1">
         <v>7200</v>
       </c>
-      <c r="E63" s="1">
-        <v>96</v>
+      <c r="E63" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
       </c>
       <c r="G63" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H63" s="1">
         <v>0</v>
@@ -3047,18 +7153,18 @@
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="C64" s="1">
-        <v>0</v>
-      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
       <c r="D64" s="1">
         <v>7296</v>
       </c>
-      <c r="E64" s="1">
-        <v>192</v>
+      <c r="E64" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
       </c>
+      <c r="G64" s="1"/>
       <c r="H64" s="1">
         <v>0</v>
       </c>
@@ -3091,14 +7197,14 @@
       <c r="D65" s="1">
         <v>7488</v>
       </c>
-      <c r="E65" s="1">
-        <v>96</v>
+      <c r="E65" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
       </c>
       <c r="G65" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H65" s="1">
         <v>0</v>
@@ -3132,14 +7238,14 @@
       <c r="D66" s="1">
         <v>7584</v>
       </c>
-      <c r="E66" s="1">
-        <v>96</v>
+      <c r="E66" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
       </c>
       <c r="G66" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H66" s="1">
         <v>0</v>
@@ -3173,14 +7279,14 @@
       <c r="D67" s="1">
         <v>7680</v>
       </c>
-      <c r="E67" s="1">
-        <v>96</v>
+      <c r="E67" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
       </c>
       <c r="G67" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H67" s="1">
         <v>0</v>
@@ -3205,18 +7311,18 @@
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="C68" s="1">
-        <v>0</v>
-      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
       <c r="D68" s="1">
         <v>7776</v>
       </c>
-      <c r="E68" s="1">
-        <v>288</v>
+      <c r="E68" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
       </c>
+      <c r="G68" s="1"/>
       <c r="H68" s="1">
         <v>0</v>
       </c>
@@ -3249,14 +7355,14 @@
       <c r="D69" s="1">
         <v>8064</v>
       </c>
-      <c r="E69" s="1">
-        <v>96</v>
+      <c r="E69" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
       </c>
       <c r="G69" s="1">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="H69" s="1">
         <v>0</v>
@@ -3281,18 +7387,18 @@
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="C70" s="1">
-        <v>0</v>
-      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
       <c r="D70" s="1">
         <v>8160</v>
       </c>
-      <c r="E70" s="1">
-        <v>288</v>
+      <c r="E70" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
       </c>
+      <c r="G70" s="1"/>
       <c r="H70" s="1">
         <v>0</v>
       </c>
@@ -3325,14 +7431,14 @@
       <c r="D71" s="1">
         <v>8448</v>
       </c>
-      <c r="E71" s="1">
-        <v>96</v>
+      <c r="E71" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>
       </c>
       <c r="G71" s="1">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="H71" s="1">
         <v>0</v>
@@ -3366,14 +7472,14 @@
       <c r="D72" s="1">
         <v>8544</v>
       </c>
-      <c r="E72" s="1">
-        <v>96</v>
+      <c r="E72" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
       </c>
       <c r="G72" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H72" s="1">
         <v>0</v>
@@ -3407,14 +7513,14 @@
       <c r="D73" s="1">
         <v>8640</v>
       </c>
-      <c r="E73" s="1">
-        <v>96</v>
+      <c r="E73" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F73" s="1">
         <v>0</v>
       </c>
       <c r="G73" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H73" s="1">
         <v>0</v>
@@ -3448,14 +7554,14 @@
       <c r="D74" s="1">
         <v>8736</v>
       </c>
-      <c r="E74" s="1">
-        <v>96</v>
+      <c r="E74" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
       </c>
       <c r="G74" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H74" s="1">
         <v>0</v>
@@ -3489,14 +7595,14 @@
       <c r="D75" s="1">
         <v>8832</v>
       </c>
-      <c r="E75" s="1">
-        <v>96</v>
+      <c r="E75" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F75" s="1">
         <v>0</v>
       </c>
       <c r="G75" s="1">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H75" s="1">
         <v>0</v>
@@ -3530,14 +7636,14 @@
       <c r="D76" s="1">
         <v>8928</v>
       </c>
-      <c r="E76" s="1">
-        <v>96</v>
+      <c r="E76" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F76" s="1">
         <v>0</v>
       </c>
       <c r="G76" s="1">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H76" s="1">
         <v>0</v>
@@ -3571,14 +7677,14 @@
       <c r="D77" s="1">
         <v>9024</v>
       </c>
-      <c r="E77" s="1">
-        <v>96</v>
+      <c r="E77" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F77" s="1">
         <v>0</v>
       </c>
       <c r="G77" s="1">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H77" s="1">
         <v>0</v>
@@ -3612,14 +7718,14 @@
       <c r="D78" s="1">
         <v>9120</v>
       </c>
-      <c r="E78" s="1">
-        <v>96</v>
+      <c r="E78" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F78" s="1">
         <v>0</v>
       </c>
       <c r="G78" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H78" s="1">
         <v>0</v>
@@ -3653,14 +7759,14 @@
       <c r="D79" s="1">
         <v>9216</v>
       </c>
-      <c r="E79" s="1">
-        <v>128</v>
+      <c r="E79" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F79" s="1">
         <v>0</v>
       </c>
       <c r="G79" s="1">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H79" s="1">
         <v>0</v>
@@ -3694,14 +7800,14 @@
       <c r="D80" s="1">
         <v>9344</v>
       </c>
-      <c r="E80" s="1">
-        <v>128</v>
+      <c r="E80" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F80" s="1">
         <v>0</v>
       </c>
       <c r="G80" s="1">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="H80" s="1">
         <v>0</v>
@@ -3735,14 +7841,14 @@
       <c r="D81" s="1">
         <v>9472</v>
       </c>
-      <c r="E81" s="1">
-        <v>128</v>
+      <c r="E81" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F81" s="1">
         <v>0</v>
       </c>
       <c r="G81" s="1">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="H81" s="1">
         <v>0</v>
@@ -3776,14 +7882,14 @@
       <c r="D82" s="1">
         <v>9600</v>
       </c>
-      <c r="E82" s="1">
-        <v>64</v>
+      <c r="E82" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F82" s="1">
         <v>0</v>
       </c>
       <c r="G82" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H82" s="1">
         <v>0</v>
@@ -3817,14 +7923,14 @@
       <c r="D83" s="1">
         <v>9664</v>
       </c>
-      <c r="E83" s="1">
-        <v>64</v>
+      <c r="E83" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F83" s="1">
         <v>0</v>
       </c>
       <c r="G83" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H83" s="1">
         <v>0</v>
@@ -3858,14 +7964,14 @@
       <c r="D84" s="1">
         <v>9728</v>
       </c>
-      <c r="E84" s="1">
-        <v>64</v>
+      <c r="E84" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F84" s="1">
         <v>0</v>
       </c>
       <c r="G84" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H84" s="1">
         <v>0</v>
@@ -3899,14 +8005,14 @@
       <c r="D85" s="1">
         <v>9792</v>
       </c>
-      <c r="E85" s="1">
-        <v>32</v>
+      <c r="E85" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F85" s="1">
         <v>0</v>
       </c>
       <c r="G85" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H85" s="1">
         <v>0</v>
@@ -3940,14 +8046,14 @@
       <c r="D86" s="1">
         <v>9824</v>
       </c>
-      <c r="E86" s="1">
-        <v>32</v>
+      <c r="E86" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F86" s="1">
         <v>0</v>
       </c>
       <c r="G86" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H86" s="1">
         <v>0</v>
@@ -3981,14 +8087,14 @@
       <c r="D87" s="1">
         <v>9856</v>
       </c>
-      <c r="E87" s="1">
-        <v>32</v>
+      <c r="E87" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F87" s="1">
         <v>0</v>
       </c>
       <c r="G87" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H87" s="1">
         <v>0</v>
@@ -4022,14 +8128,14 @@
       <c r="D88" s="1">
         <v>9888</v>
       </c>
-      <c r="E88" s="1">
-        <v>32</v>
+      <c r="E88" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F88" s="1">
         <v>0</v>
       </c>
       <c r="G88" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H88" s="1">
         <v>0</v>
@@ -4063,14 +8169,14 @@
       <c r="D89" s="1">
         <v>9920</v>
       </c>
-      <c r="E89" s="1">
-        <v>32</v>
+      <c r="E89" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F89" s="1">
         <v>0</v>
       </c>
       <c r="G89" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H89" s="1">
         <v>0</v>
@@ -4104,14 +8210,14 @@
       <c r="D90" s="1">
         <v>9952</v>
       </c>
-      <c r="E90" s="1">
-        <v>32</v>
+      <c r="E90" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F90" s="1">
         <v>0</v>
       </c>
       <c r="G90" s="1">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="H90" s="1">
         <v>0</v>
@@ -4145,14 +8251,14 @@
       <c r="D91" s="1">
         <v>9984</v>
       </c>
-      <c r="E91" s="1">
-        <v>96</v>
+      <c r="E91" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F91" s="1">
         <v>0</v>
       </c>
       <c r="G91" s="1">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="H91" s="1">
         <v>0</v>
@@ -4177,18 +8283,18 @@
       <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="C92" s="1">
-        <v>0</v>
-      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
       <c r="D92" s="1">
         <v>10080</v>
       </c>
-      <c r="E92" s="1">
-        <v>288</v>
+      <c r="E92" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="F92" s="1">
         <v>0</v>
       </c>
+      <c r="G92" s="1"/>
       <c r="H92" s="1">
         <v>0</v>
       </c>
@@ -4221,14 +8327,14 @@
       <c r="D93" s="1">
         <v>10368</v>
       </c>
-      <c r="E93" s="1">
-        <v>48</v>
+      <c r="E93" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F93" s="1">
         <v>0</v>
       </c>
       <c r="G93" s="1">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="H93" s="1">
         <v>0</v>
@@ -4262,14 +8368,14 @@
       <c r="D94" s="1">
         <v>10416</v>
       </c>
-      <c r="E94" s="1">
-        <v>48</v>
+      <c r="E94" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F94" s="1">
         <v>0</v>
       </c>
       <c r="G94" s="1">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="H94" s="1">
         <v>0</v>
@@ -4303,14 +8409,14 @@
       <c r="D95" s="1">
         <v>10464</v>
       </c>
-      <c r="E95" s="1">
-        <v>48</v>
+      <c r="E95" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F95" s="1">
         <v>0</v>
       </c>
       <c r="G95" s="1">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1">
         <v>0</v>
@@ -4344,14 +8450,14 @@
       <c r="D96" s="1">
         <v>10512</v>
       </c>
-      <c r="E96" s="1">
-        <v>48</v>
+      <c r="E96" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F96" s="1">
         <v>0</v>
       </c>
       <c r="G96" s="1">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="H96" s="1">
         <v>0</v>
@@ -4385,14 +8491,14 @@
       <c r="D97" s="1">
         <v>10560</v>
       </c>
-      <c r="E97" s="1">
-        <v>48</v>
+      <c r="E97" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F97" s="1">
         <v>0</v>
       </c>
       <c r="G97" s="1">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1">
         <v>0</v>
@@ -4426,14 +8532,14 @@
       <c r="D98" s="1">
         <v>10608</v>
       </c>
-      <c r="E98" s="1">
-        <v>48</v>
+      <c r="E98" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F98" s="1">
         <v>0</v>
       </c>
       <c r="G98" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H98" s="1">
         <v>0</v>
@@ -4467,14 +8573,14 @@
       <c r="D99" s="1">
         <v>10656</v>
       </c>
-      <c r="E99" s="1">
-        <v>48</v>
+      <c r="E99" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F99" s="1">
         <v>0</v>
       </c>
       <c r="G99" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H99" s="1">
         <v>0</v>
@@ -4508,14 +8614,14 @@
       <c r="D100" s="1">
         <v>10704</v>
       </c>
-      <c r="E100" s="1">
-        <v>48</v>
+      <c r="E100" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F100" s="1">
         <v>0</v>
       </c>
       <c r="G100" s="1">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="H100" s="1">
         <v>0</v>
@@ -4543,23 +8649,24 @@
       <c r="B101" s="1">
         <v>48</v>
       </c>
+      <c r="C101" s="1"/>
       <c r="D101" s="1">
         <v>10752</v>
       </c>
-      <c r="E101" s="1">
-        <v>48</v>
+      <c r="E101" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F101" s="1">
         <v>0</v>
       </c>
       <c r="G101" s="1">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="H101" s="1">
+        <v>0</v>
+      </c>
+      <c r="I101" s="1">
         <v>1</v>
-      </c>
-      <c r="I101" s="1">
-        <v>0</v>
       </c>
       <c r="J101" s="1">
         <v>0</v>
@@ -4587,14 +8694,14 @@
       <c r="D102" s="1">
         <v>10800</v>
       </c>
-      <c r="E102" s="1">
-        <v>48</v>
+      <c r="E102" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F102" s="1">
         <v>0</v>
       </c>
       <c r="G102" s="1">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="H102" s="1">
         <v>0</v>
@@ -4628,14 +8735,14 @@
       <c r="D103" s="1">
         <v>10848</v>
       </c>
-      <c r="E103" s="1">
-        <v>48</v>
+      <c r="E103" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F103" s="1">
         <v>0</v>
       </c>
       <c r="G103" s="1">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="H103" s="1">
         <v>0</v>
@@ -4669,14 +8776,14 @@
       <c r="D104" s="1">
         <v>10896</v>
       </c>
-      <c r="E104" s="1">
-        <v>48</v>
+      <c r="E104" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F104" s="1">
         <v>0</v>
       </c>
       <c r="G104" s="1">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="H104" s="1">
         <v>0</v>
@@ -4710,14 +8817,14 @@
       <c r="D105" s="1">
         <v>10944</v>
       </c>
-      <c r="E105" s="1">
-        <v>48</v>
+      <c r="E105" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F105" s="1">
         <v>0</v>
       </c>
       <c r="G105" s="1">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="H105" s="1">
         <v>0</v>
@@ -4751,14 +8858,14 @@
       <c r="D106" s="1">
         <v>10992</v>
       </c>
-      <c r="E106" s="1">
-        <v>48</v>
+      <c r="E106" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F106" s="1">
         <v>0</v>
       </c>
       <c r="G106" s="1">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="H106" s="1">
         <v>0</v>
@@ -4792,14 +8899,14 @@
       <c r="D107" s="1">
         <v>11040</v>
       </c>
-      <c r="E107" s="1">
-        <v>48</v>
+      <c r="E107" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F107" s="1">
         <v>0</v>
       </c>
       <c r="G107" s="1">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="H107" s="1">
         <v>0</v>
@@ -4833,14 +8940,14 @@
       <c r="D108" s="1">
         <v>11088</v>
       </c>
-      <c r="E108" s="1">
-        <v>48</v>
+      <c r="E108" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F108" s="1">
         <v>0</v>
       </c>
       <c r="G108" s="1">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="H108" s="1">
         <v>0</v>
@@ -4874,14 +8981,14 @@
       <c r="D109" s="1">
         <v>11136</v>
       </c>
-      <c r="E109" s="1">
+      <c r="E109" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F109" s="1">
         <v>0</v>
       </c>
       <c r="G109" s="1">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="H109" s="1">
         <v>0</v>
@@ -4915,14 +9022,14 @@
       <c r="D110" s="1">
         <v>11160</v>
       </c>
-      <c r="E110" s="1">
+      <c r="E110" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F110" s="1">
         <v>0</v>
       </c>
       <c r="G110" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H110" s="1">
         <v>0</v>
@@ -4956,14 +9063,14 @@
       <c r="D111" s="1">
         <v>11184</v>
       </c>
-      <c r="E111" s="1">
+      <c r="E111" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F111" s="1">
         <v>0</v>
       </c>
       <c r="G111" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H111" s="1">
         <v>0</v>
@@ -4997,14 +9104,14 @@
       <c r="D112" s="1">
         <v>11208</v>
       </c>
-      <c r="E112" s="1">
+      <c r="E112" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F112" s="1">
         <v>0</v>
       </c>
       <c r="G112" s="1">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H112" s="1">
         <v>0</v>
@@ -5038,14 +9145,14 @@
       <c r="D113" s="1">
         <v>11232</v>
       </c>
-      <c r="E113" s="1">
+      <c r="E113" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F113" s="1">
         <v>0</v>
       </c>
       <c r="G113" s="1">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H113" s="1">
         <v>0</v>
@@ -5079,14 +9186,14 @@
       <c r="D114" s="1">
         <v>11256</v>
       </c>
-      <c r="E114" s="1">
+      <c r="E114" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F114" s="1">
         <v>0</v>
       </c>
       <c r="G114" s="1">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H114" s="1">
         <v>0</v>
@@ -5120,14 +9227,14 @@
       <c r="D115" s="1">
         <v>11280</v>
       </c>
-      <c r="E115" s="1">
+      <c r="E115" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F115" s="1">
         <v>0</v>
       </c>
       <c r="G115" s="1">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H115" s="1">
         <v>0</v>
@@ -5161,14 +9268,14 @@
       <c r="D116" s="1">
         <v>11304</v>
       </c>
-      <c r="E116" s="1">
+      <c r="E116" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F116" s="1">
         <v>0</v>
       </c>
       <c r="G116" s="1">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H116" s="1">
         <v>0</v>
@@ -5202,14 +9309,14 @@
       <c r="D117" s="1">
         <v>11328</v>
       </c>
-      <c r="E117" s="1">
+      <c r="E117" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F117" s="1">
         <v>0</v>
       </c>
       <c r="G117" s="1">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H117" s="1">
         <v>0</v>
@@ -5243,14 +9350,14 @@
       <c r="D118" s="1">
         <v>11352</v>
       </c>
-      <c r="E118" s="1">
+      <c r="E118" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F118" s="1">
         <v>0</v>
       </c>
       <c r="G118" s="1">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H118" s="1">
         <v>0</v>
@@ -5284,14 +9391,14 @@
       <c r="D119" s="1">
         <v>11376</v>
       </c>
-      <c r="E119" s="1">
+      <c r="E119" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F119" s="1">
         <v>0</v>
       </c>
       <c r="G119" s="1">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H119" s="1">
         <v>0</v>
@@ -5325,14 +9432,14 @@
       <c r="D120" s="1">
         <v>11400</v>
       </c>
-      <c r="E120" s="1">
+      <c r="E120" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F120" s="1">
         <v>0</v>
       </c>
       <c r="G120" s="1">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H120" s="1">
         <v>0</v>
@@ -5366,14 +9473,14 @@
       <c r="D121" s="1">
         <v>11424</v>
       </c>
-      <c r="E121" s="1">
+      <c r="E121" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F121" s="1">
         <v>0</v>
       </c>
       <c r="G121" s="1">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H121" s="1">
         <v>0</v>
@@ -5407,14 +9514,14 @@
       <c r="D122" s="1">
         <v>11448</v>
       </c>
-      <c r="E122" s="1">
+      <c r="E122" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F122" s="1">
         <v>0</v>
       </c>
       <c r="G122" s="1">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H122" s="1">
         <v>0</v>
@@ -5448,14 +9555,14 @@
       <c r="D123" s="1">
         <v>11472</v>
       </c>
-      <c r="E123" s="1">
+      <c r="E123" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F123" s="1">
         <v>0</v>
       </c>
       <c r="G123" s="1">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H123" s="1">
         <v>0</v>
@@ -5480,18 +9587,18 @@
       <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="C124" s="1">
-        <v>0</v>
-      </c>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
       <c r="D124" s="1">
         <v>11496</v>
       </c>
-      <c r="E124" s="1">
+      <c r="E124" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F124" s="1">
         <v>0</v>
       </c>
+      <c r="G124" s="1"/>
       <c r="H124" s="1">
         <v>0</v>
       </c>
@@ -5524,14 +9631,14 @@
       <c r="D125" s="1">
         <v>11520</v>
       </c>
-      <c r="E125" s="1">
+      <c r="E125" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F125" s="1">
         <v>0</v>
       </c>
       <c r="G125" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H125" s="1">
         <v>0</v>
@@ -5565,14 +9672,14 @@
       <c r="D126" s="1">
         <v>11544</v>
       </c>
-      <c r="E126" s="1">
+      <c r="E126" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F126" s="1">
         <v>0</v>
       </c>
       <c r="G126" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H126" s="1">
         <v>0</v>
@@ -5606,14 +9713,14 @@
       <c r="D127" s="1">
         <v>11568</v>
       </c>
-      <c r="E127" s="1">
+      <c r="E127" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F127" s="1">
         <v>0</v>
       </c>
       <c r="G127" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H127" s="1">
         <v>0</v>
@@ -5647,14 +9754,14 @@
       <c r="D128" s="1">
         <v>11592</v>
       </c>
-      <c r="E128" s="1">
+      <c r="E128" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F128" s="1">
         <v>0</v>
       </c>
       <c r="G128" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H128" s="1">
         <v>0</v>
@@ -5688,14 +9795,14 @@
       <c r="D129" s="1">
         <v>11616</v>
       </c>
-      <c r="E129" s="1">
+      <c r="E129" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F129" s="1">
         <v>0</v>
       </c>
       <c r="G129" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H129" s="1">
         <v>0</v>
@@ -5729,14 +9836,14 @@
       <c r="D130" s="1">
         <v>11640</v>
       </c>
-      <c r="E130" s="1">
+      <c r="E130" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F130" s="1">
         <v>0</v>
       </c>
       <c r="G130" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H130" s="1">
         <v>0</v>
@@ -5770,14 +9877,14 @@
       <c r="D131" s="1">
         <v>11664</v>
       </c>
-      <c r="E131" s="1">
+      <c r="E131" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F131" s="1">
         <v>0</v>
       </c>
       <c r="G131" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H131" s="1">
         <v>0</v>
@@ -5811,14 +9918,14 @@
       <c r="D132" s="1">
         <v>11688</v>
       </c>
-      <c r="E132" s="1">
+      <c r="E132" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F132" s="1">
         <v>0</v>
       </c>
       <c r="G132" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H132" s="1">
         <v>0</v>
@@ -5852,14 +9959,14 @@
       <c r="D133" s="1">
         <v>11712</v>
       </c>
-      <c r="E133" s="1">
+      <c r="E133" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F133" s="1">
         <v>0</v>
       </c>
       <c r="G133" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H133" s="1">
         <v>0</v>
@@ -5893,14 +10000,14 @@
       <c r="D134" s="1">
         <v>11736</v>
       </c>
-      <c r="E134" s="1">
+      <c r="E134" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F134" s="1">
         <v>0</v>
       </c>
       <c r="G134" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H134" s="1">
         <v>0</v>
@@ -5934,14 +10041,14 @@
       <c r="D135" s="1">
         <v>11760</v>
       </c>
-      <c r="E135" s="1">
+      <c r="E135" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F135" s="1">
         <v>0</v>
       </c>
       <c r="G135" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H135" s="1">
         <v>0</v>
@@ -5975,14 +10082,14 @@
       <c r="D136" s="1">
         <v>11784</v>
       </c>
-      <c r="E136" s="1">
+      <c r="E136" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F136" s="1">
         <v>0</v>
       </c>
       <c r="G136" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H136" s="1">
         <v>0</v>
@@ -6016,14 +10123,14 @@
       <c r="D137" s="1">
         <v>11808</v>
       </c>
-      <c r="E137" s="1">
+      <c r="E137" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F137" s="1">
         <v>0</v>
       </c>
       <c r="G137" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H137" s="1">
         <v>0</v>
@@ -6057,14 +10164,14 @@
       <c r="D138" s="1">
         <v>11832</v>
       </c>
-      <c r="E138" s="1">
+      <c r="E138" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F138" s="1">
         <v>0</v>
       </c>
       <c r="G138" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H138" s="1">
         <v>0</v>
@@ -6098,14 +10205,14 @@
       <c r="D139" s="1">
         <v>11856</v>
       </c>
-      <c r="E139" s="1">
+      <c r="E139" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F139" s="1">
         <v>0</v>
       </c>
       <c r="G139" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H139" s="1">
         <v>0</v>
@@ -6139,14 +10246,14 @@
       <c r="D140" s="1">
         <v>11880</v>
       </c>
-      <c r="E140" s="1">
+      <c r="E140" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F140" s="1">
         <v>0</v>
       </c>
       <c r="G140" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H140" s="1">
         <v>0</v>
@@ -6180,14 +10287,14 @@
       <c r="D141" s="1">
         <v>11904</v>
       </c>
-      <c r="E141" s="1">
-        <v>96</v>
+      <c r="E141" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F141" s="1">
         <v>0</v>
       </c>
       <c r="G141" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H141" s="1">
         <v>0</v>
@@ -6221,14 +10328,14 @@
       <c r="D142" s="1">
         <v>12000</v>
       </c>
-      <c r="E142" s="1">
-        <v>96</v>
+      <c r="E142" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F142" s="1">
         <v>0</v>
       </c>
       <c r="G142" s="1">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H142" s="1">
         <v>0</v>
@@ -6262,14 +10369,14 @@
       <c r="D143" s="1">
         <v>12096</v>
       </c>
-      <c r="E143" s="1">
-        <v>96</v>
+      <c r="E143" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F143" s="1">
         <v>0</v>
       </c>
       <c r="G143" s="1">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H143" s="1">
         <v>0</v>
@@ -6303,14 +10410,14 @@
       <c r="D144" s="1">
         <v>12192</v>
       </c>
-      <c r="E144" s="1">
-        <v>96</v>
+      <c r="E144" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F144" s="1">
         <v>0</v>
       </c>
       <c r="G144" s="1">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H144" s="1">
         <v>0</v>
@@ -6344,14 +10451,14 @@
       <c r="D145" s="1">
         <v>12288</v>
       </c>
-      <c r="E145" s="1">
-        <v>96</v>
+      <c r="E145" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F145" s="1">
         <v>0</v>
       </c>
       <c r="G145" s="1">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H145" s="1">
         <v>0</v>
@@ -6360,10 +10467,10 @@
         <v>0</v>
       </c>
       <c r="J145" s="1">
+        <v>0</v>
+      </c>
+      <c r="K145" s="1">
         <v>1</v>
-      </c>
-      <c r="K145" s="1">
-        <v>0</v>
       </c>
       <c r="L145" s="1">
         <v>0</v>
@@ -6385,14 +10492,14 @@
       <c r="D146" s="1">
         <v>12384</v>
       </c>
-      <c r="E146" s="1">
-        <v>96</v>
+      <c r="E146" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F146" s="1">
         <v>0</v>
       </c>
       <c r="G146" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H146" s="1">
         <v>0</v>
@@ -6426,14 +10533,14 @@
       <c r="D147" s="1">
         <v>12480</v>
       </c>
-      <c r="E147" s="1">
-        <v>96</v>
+      <c r="E147" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F147" s="1">
         <v>0</v>
       </c>
       <c r="G147" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H147" s="1">
         <v>0</v>
@@ -6467,14 +10574,14 @@
       <c r="D148" s="1">
         <v>12576</v>
       </c>
-      <c r="E148" s="1">
-        <v>96</v>
+      <c r="E148" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F148" s="1">
         <v>0</v>
       </c>
       <c r="G148" s="1">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H148" s="1">
         <v>0</v>
@@ -6508,14 +10615,14 @@
       <c r="D149" s="1">
         <v>12672</v>
       </c>
-      <c r="E149" s="1">
-        <v>96</v>
+      <c r="E149" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F149" s="1">
         <v>0</v>
       </c>
       <c r="G149" s="1">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H149" s="1">
         <v>0</v>
@@ -6549,14 +10656,14 @@
       <c r="D150" s="1">
         <v>12768</v>
       </c>
-      <c r="E150" s="1">
-        <v>96</v>
+      <c r="E150" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F150" s="1">
         <v>0</v>
       </c>
       <c r="G150" s="1">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H150" s="1">
         <v>0</v>
@@ -6590,14 +10697,14 @@
       <c r="D151" s="1">
         <v>12864</v>
       </c>
-      <c r="E151" s="1">
-        <v>96</v>
+      <c r="E151" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F151" s="1">
         <v>0</v>
       </c>
       <c r="G151" s="1">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H151" s="1">
         <v>0</v>
@@ -6631,14 +10738,14 @@
       <c r="D152" s="1">
         <v>12960</v>
       </c>
-      <c r="E152" s="1">
-        <v>96</v>
+      <c r="E152" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F152" s="1">
         <v>0</v>
       </c>
       <c r="G152" s="1">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H152" s="1">
         <v>0</v>
@@ -6672,14 +10779,14 @@
       <c r="D153" s="1">
         <v>13056</v>
       </c>
-      <c r="E153" s="1">
-        <v>96</v>
+      <c r="E153" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F153" s="1">
         <v>0</v>
       </c>
       <c r="G153" s="1">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="H153" s="1">
         <v>0</v>
@@ -6713,14 +10820,14 @@
       <c r="D154" s="1">
         <v>13152</v>
       </c>
-      <c r="E154" s="1">
-        <v>96</v>
+      <c r="E154" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F154" s="1">
         <v>0</v>
       </c>
       <c r="G154" s="1">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="H154" s="1">
         <v>0</v>
@@ -6754,14 +10861,14 @@
       <c r="D155" s="1">
         <v>13248</v>
       </c>
-      <c r="E155" s="1">
-        <v>96</v>
+      <c r="E155" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F155" s="1">
         <v>0</v>
       </c>
       <c r="G155" s="1">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="H155" s="1">
         <v>0</v>
@@ -6795,14 +10902,14 @@
       <c r="D156" s="1">
         <v>13344</v>
       </c>
-      <c r="E156" s="1">
-        <v>96</v>
+      <c r="E156" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F156" s="1">
         <v>0</v>
       </c>
       <c r="G156" s="1">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="H156" s="1">
         <v>0</v>
@@ -6836,14 +10943,14 @@
       <c r="D157" s="1">
         <v>13440</v>
       </c>
-      <c r="E157" s="1">
-        <v>96</v>
+      <c r="E157" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F157" s="1">
         <v>0</v>
       </c>
       <c r="G157" s="1">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="H157" s="1">
         <v>0</v>
@@ -6877,14 +10984,14 @@
       <c r="D158" s="1">
         <v>13536</v>
       </c>
-      <c r="E158" s="1">
-        <v>96</v>
+      <c r="E158" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F158" s="1">
         <v>0</v>
       </c>
       <c r="G158" s="1">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="H158" s="1">
         <v>0</v>
@@ -6918,14 +11025,14 @@
       <c r="D159" s="1">
         <v>13632</v>
       </c>
-      <c r="E159" s="1">
-        <v>96</v>
+      <c r="E159" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F159" s="1">
         <v>0</v>
       </c>
       <c r="G159" s="1">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="H159" s="1">
         <v>0</v>
@@ -6959,14 +11066,14 @@
       <c r="D160" s="1">
         <v>13728</v>
       </c>
-      <c r="E160" s="1">
-        <v>96</v>
+      <c r="E160" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F160" s="1">
         <v>0</v>
       </c>
       <c r="G160" s="1">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="H160" s="1">
         <v>0</v>
@@ -7000,14 +11107,14 @@
       <c r="D161" s="1">
         <v>13824</v>
       </c>
-      <c r="E161" s="1">
-        <v>96</v>
+      <c r="E161" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F161" s="1">
         <v>0</v>
       </c>
       <c r="G161" s="1">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="H161" s="1">
         <v>0</v>
@@ -7041,14 +11148,14 @@
       <c r="D162" s="1">
         <v>13920</v>
       </c>
-      <c r="E162" s="1">
-        <v>96</v>
+      <c r="E162" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F162" s="1">
         <v>0</v>
       </c>
       <c r="G162" s="1">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="H162" s="1">
         <v>0</v>
@@ -7082,14 +11189,14 @@
       <c r="D163" s="1">
         <v>14016</v>
       </c>
-      <c r="E163" s="1">
-        <v>96</v>
+      <c r="E163" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F163" s="1">
         <v>0</v>
       </c>
       <c r="G163" s="1">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="H163" s="1">
         <v>0</v>
@@ -7123,14 +11230,14 @@
       <c r="D164" s="1">
         <v>14112</v>
       </c>
-      <c r="E164" s="1">
-        <v>96</v>
+      <c r="E164" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F164" s="1">
         <v>0</v>
       </c>
       <c r="G164" s="1">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="H164" s="1">
         <v>0</v>
@@ -7164,14 +11271,14 @@
       <c r="D165" s="1">
         <v>14208</v>
       </c>
-      <c r="E165" s="1">
-        <v>96</v>
+      <c r="E165" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F165" s="1">
         <v>0</v>
       </c>
       <c r="G165" s="1">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="H165" s="1">
         <v>0</v>
@@ -7205,14 +11312,14 @@
       <c r="D166" s="1">
         <v>14304</v>
       </c>
-      <c r="E166" s="1">
-        <v>96</v>
+      <c r="E166" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F166" s="1">
         <v>0</v>
       </c>
       <c r="G166" s="1">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H166" s="1">
         <v>0</v>
@@ -7246,14 +11353,14 @@
       <c r="D167" s="1">
         <v>14400</v>
       </c>
-      <c r="E167" s="1">
-        <v>96</v>
+      <c r="E167" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F167" s="1">
         <v>0</v>
       </c>
       <c r="G167" s="1">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H167" s="1">
         <v>0</v>
@@ -7287,14 +11394,14 @@
       <c r="D168" s="1">
         <v>14496</v>
       </c>
-      <c r="E168" s="1">
-        <v>96</v>
+      <c r="E168" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F168" s="1">
         <v>0</v>
       </c>
       <c r="G168" s="1">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H168" s="1">
         <v>0</v>
@@ -7328,14 +11435,14 @@
       <c r="D169" s="1">
         <v>14592</v>
       </c>
-      <c r="E169" s="1">
-        <v>96</v>
+      <c r="E169" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F169" s="1">
         <v>0</v>
       </c>
       <c r="G169" s="1">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H169" s="1">
         <v>0</v>
@@ -7369,14 +11476,14 @@
       <c r="D170" s="1">
         <v>14688</v>
       </c>
-      <c r="E170" s="1">
-        <v>96</v>
+      <c r="E170" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F170" s="1">
         <v>0</v>
       </c>
       <c r="G170" s="1">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="H170" s="1">
         <v>0</v>
@@ -7410,14 +11517,14 @@
       <c r="D171" s="1">
         <v>14784</v>
       </c>
-      <c r="E171" s="1">
-        <v>96</v>
+      <c r="E171" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F171" s="1">
         <v>0</v>
       </c>
       <c r="G171" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H171" s="1">
         <v>0</v>
@@ -7451,14 +11558,14 @@
       <c r="D172" s="1">
         <v>14880</v>
       </c>
-      <c r="E172" s="1">
-        <v>96</v>
+      <c r="E172" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F172" s="1">
         <v>0</v>
       </c>
       <c r="G172" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H172" s="1">
         <v>0</v>
@@ -7492,14 +11599,14 @@
       <c r="D173" s="1">
         <v>14976</v>
       </c>
-      <c r="E173" s="1">
-        <v>96</v>
+      <c r="E173" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F173" s="1">
         <v>0</v>
       </c>
       <c r="G173" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H173" s="1">
         <v>0</v>
@@ -7533,14 +11640,14 @@
       <c r="D174" s="1">
         <v>15072</v>
       </c>
-      <c r="E174" s="1">
-        <v>96</v>
+      <c r="E174" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F174" s="1">
         <v>0</v>
       </c>
       <c r="G174" s="1">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H174" s="1">
         <v>0</v>
@@ -7574,14 +11681,14 @@
       <c r="D175" s="1">
         <v>15168</v>
       </c>
-      <c r="E175" s="1">
-        <v>96</v>
+      <c r="E175" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F175" s="1">
         <v>0</v>
       </c>
       <c r="G175" s="1">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="H175" s="1">
         <v>0</v>
@@ -7615,14 +11722,14 @@
       <c r="D176" s="1">
         <v>15264</v>
       </c>
-      <c r="E176" s="1">
-        <v>96</v>
+      <c r="E176" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F176" s="1">
         <v>0</v>
       </c>
       <c r="G176" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H176" s="1">
         <v>0</v>
@@ -7656,14 +11763,14 @@
       <c r="D177" s="1">
         <v>15360</v>
       </c>
-      <c r="E177" s="1">
-        <v>96</v>
+      <c r="E177" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F177" s="1">
         <v>0</v>
       </c>
       <c r="G177" s="1">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H177" s="1">
         <v>0</v>
@@ -7697,14 +11804,14 @@
       <c r="D178" s="1">
         <v>15456</v>
       </c>
-      <c r="E178" s="1">
-        <v>96</v>
+      <c r="E178" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F178" s="1">
         <v>0</v>
       </c>
       <c r="G178" s="1">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H178" s="1">
         <v>0</v>
@@ -7738,14 +11845,14 @@
       <c r="D179" s="1">
         <v>15552</v>
       </c>
-      <c r="E179" s="1">
-        <v>96</v>
+      <c r="E179" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F179" s="1">
         <v>0</v>
       </c>
       <c r="G179" s="1">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H179" s="1">
         <v>0</v>
@@ -7779,14 +11886,14 @@
       <c r="D180" s="1">
         <v>15648</v>
       </c>
-      <c r="E180" s="1">
-        <v>96</v>
+      <c r="E180" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F180" s="1">
         <v>0</v>
       </c>
       <c r="G180" s="1">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H180" s="1">
         <v>0</v>
@@ -7820,14 +11927,14 @@
       <c r="D181" s="1">
         <v>15744</v>
       </c>
-      <c r="E181" s="1">
-        <v>96</v>
+      <c r="E181" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F181" s="1">
         <v>0</v>
       </c>
       <c r="G181" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H181" s="1">
         <v>0</v>
@@ -7861,14 +11968,14 @@
       <c r="D182" s="1">
         <v>15840</v>
       </c>
-      <c r="E182" s="1">
-        <v>96</v>
+      <c r="E182" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F182" s="1">
         <v>0</v>
       </c>
       <c r="G182" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H182" s="1">
         <v>0</v>
@@ -7902,14 +12009,14 @@
       <c r="D183" s="1">
         <v>15936</v>
       </c>
-      <c r="E183" s="1">
-        <v>96</v>
+      <c r="E183" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F183" s="1">
         <v>0</v>
       </c>
       <c r="G183" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H183" s="1">
         <v>0</v>
@@ -7943,14 +12050,14 @@
       <c r="D184" s="1">
         <v>16032</v>
       </c>
-      <c r="E184" s="1">
-        <v>95</v>
+      <c r="E184" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F184" s="1">
         <v>0</v>
       </c>
       <c r="G184" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H184" s="1">
         <v>0</v>
@@ -7973,16 +12080,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="K3243:K1048576 N3243:N1048576">
-    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3243:K1048576">
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
-      <formula>"FASLE"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI Projects\MIDI_Factory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A02842-554A-4E90-B342-A99E70BDEC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B06088-CBEC-475E-93D6-0E9E69AF459E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4305" yWindow="-16320" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4185" yWindow="-10200" windowWidth="20490" windowHeight="9750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="raw" sheetId="4" r:id="rId1"/>
-    <sheet name="test" sheetId="7" r:id="rId2"/>
+    <sheet name="test" sheetId="7" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="25">
   <si>
     <t>note</t>
   </si>
@@ -110,9 +109,6 @@
   <si>
     <t>s</t>
   </si>
-  <si>
-    <t>st</t>
-  </si>
 </sst>
 </file>
 
@@ -156,54 +152,57 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="عادي" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -219,38 +218,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="102" xr:uid="{58B1C75A-1194-4A5B-99BC-CC06308ADC89}" name="MyTable" displayName="MyTable" ref="A1:G210" totalsRowShown="0">
-  <autoFilter ref="A1:G210" xr:uid="{58B1C75A-1194-4A5B-99BC-CC06308ADC89}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B3A8F908-01E5-483E-830C-E82F5ABFD6B8}" name=" "/>
-    <tableColumn id="2" xr3:uid="{80C1EBA1-3649-4EDD-9972-CF5E17EDCFA4}" name="note"/>
-    <tableColumn id="3" xr3:uid="{27AA8933-E88B-464D-A141-A678579A017C}" name="interval"/>
-    <tableColumn id="4" xr3:uid="{A880CB6D-B773-4221-A9B1-8BF6B68E1238}" name="note_start_time"/>
-    <tableColumn id="5" xr3:uid="{C1F284A5-8F9F-4215-97D7-57715522C4CC}" name="duration"/>
-    <tableColumn id="6" xr3:uid="{0C521FFE-98D5-4405-AE9E-75B9452707FD}" name="slur"/>
-    <tableColumn id="7" xr3:uid="{808E8249-EC2A-4A94-839A-585E60B5AE10}" name="velocity"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="103" xr:uid="{11442251-8309-4BF2-8927-7C27B1D233E0}" name="MyTable" displayName="MyTable_1" ref="A1:M184" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="A1:M184" xr:uid="{11442251-8309-4BF2-8927-7C27B1D233E0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="136" xr:uid="{C32C5546-0D5C-4BFB-B7D2-24A59E2FA6B8}" name="MyTable" displayName="MyTable_1" ref="A1:M184" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:M184" xr:uid="{C32C5546-0D5C-4BFB-B7D2-24A59E2FA6B8}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{D41E8A44-CEB9-4F8F-BECC-868CDFA709B7}" name=" " dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{3CC2D025-2808-41F9-998D-7BE72BD379C9}" name="note" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{5064F583-E670-4928-B157-BAB4F74CEA8D}" name="interval" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{3D6C0A10-6E97-4767-AB78-2A3715DE6B1D}" name="note_start_time" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{717BBC00-DB74-4A52-8DA3-F027FFFC9E0E}" name="duration" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{4017FF2B-9E76-4CFD-BC07-8307766A3F4D}" name="slur" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{7B01D5D7-40D3-4473-B4A9-E9132E9E4CF1}" name="velocity" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{B5FB45FB-006D-42A1-BAA7-5287C78A64AE}" name="Gliss" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{BECE51EC-9F6B-4C94-84B7-58B6BD89CD63}" name="theme_start" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{D0CE77AD-EE7F-412D-A0FE-15B1FD239D39}" name="phrase_start" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{AADD9D83-1C3E-4850-97AA-EE5CF7D43DA4}" name="Vibrato" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{1190DDE3-42CF-4247-9ADB-7B9BCDED57C5}" name="Portato" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{B47144FA-6355-42B2-9451-3A7B4687A37B}" name="trill" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{77A5D652-8AEE-424A-8581-F9E12FA39077}" name=" " dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{F263F2BE-E140-453F-8E2B-37E33B931C0B}" name="note" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{2CD382B9-24A2-4911-AE8C-6830B43E5A35}" name="interval" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{7B3C62E3-A1E7-4958-874C-F937AE9B1D27}" name="note_start_time" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{5A2BFE2F-7575-477E-AF42-0061503C18E5}" name="duration" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{A2F368F7-8EC6-4B9B-B479-FB4182EEBDDD}" name="slur" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{D190B13E-7234-4CF8-B304-0B11A82E5EA3}" name="velocity" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{EF2770BD-925A-441D-965F-B73F92FF91BE}" name="Gliss" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{59EEDD0A-8E88-4123-99E0-13EA1AF0B0AE}" name="theme_start" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{AC9B7742-10DF-4D1C-BEED-C517A7A1CD6F}" name="phrase_start" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{CF14BC01-311C-4A9C-95BA-CB55D51C6B47}" name="Vibrato" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{28DFDD1A-1E01-4323-A386-F8525426CC4F}" name="Portato" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{B99C81C5-383F-41C3-A0EF-BBC0A178AE5B}" name="trill" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -542,4140 +525,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8692CAC-9E9F-45B1-AEB0-5C3F03847D7C}">
-  <dimension ref="A1:G210"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>52</v>
-      </c>
-      <c r="D4">
-        <v>48</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>55</v>
-      </c>
-      <c r="D5">
-        <v>62</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>60</v>
-      </c>
-      <c r="D6">
-        <v>67</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>77</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>80</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>48</v>
-      </c>
-      <c r="D9">
-        <v>115</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>51.5</v>
-      </c>
-      <c r="D10">
-        <v>120</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>55</v>
-      </c>
-      <c r="D11">
-        <v>139</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>60</v>
-      </c>
-      <c r="D12">
-        <v>144</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>48</v>
-      </c>
-      <c r="D13">
-        <v>154</v>
-      </c>
-      <c r="E13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>52</v>
-      </c>
-      <c r="D14">
-        <v>158</v>
-      </c>
-      <c r="E14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>52</v>
-      </c>
-      <c r="D15">
-        <v>160</v>
-      </c>
-      <c r="E15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>55</v>
-      </c>
-      <c r="D16">
-        <v>168</v>
-      </c>
-      <c r="E16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>60</v>
-      </c>
-      <c r="D17">
-        <v>182</v>
-      </c>
-      <c r="E17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>48</v>
-      </c>
-      <c r="D18">
-        <v>192</v>
-      </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>52</v>
-      </c>
-      <c r="D19">
-        <v>199</v>
-      </c>
-      <c r="E19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>52</v>
-      </c>
-      <c r="D20">
-        <v>200</v>
-      </c>
-      <c r="E20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="D21">
-        <v>211</v>
-      </c>
-      <c r="E21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>60</v>
-      </c>
-      <c r="D22">
-        <v>221</v>
-      </c>
-      <c r="E22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>48</v>
-      </c>
-      <c r="D23">
-        <v>226</v>
-      </c>
-      <c r="E23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>52</v>
-      </c>
-      <c r="D24">
-        <v>240</v>
-      </c>
-      <c r="E24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>55</v>
-      </c>
-      <c r="D25">
-        <v>245</v>
-      </c>
-      <c r="E25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>60</v>
-      </c>
-      <c r="D26">
-        <v>259</v>
-      </c>
-      <c r="E26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>48</v>
-      </c>
-      <c r="D27">
-        <v>269</v>
-      </c>
-      <c r="E27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>52</v>
-      </c>
-      <c r="D28">
-        <v>278</v>
-      </c>
-      <c r="E28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>52</v>
-      </c>
-      <c r="D29">
-        <v>280</v>
-      </c>
-      <c r="E29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>55</v>
-      </c>
-      <c r="D30">
-        <v>288</v>
-      </c>
-      <c r="E30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>60</v>
-      </c>
-      <c r="D31">
-        <v>298</v>
-      </c>
-      <c r="E31" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="D32">
-        <v>307</v>
-      </c>
-      <c r="E32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="D33">
-        <v>320</v>
-      </c>
-      <c r="E33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="D34">
-        <v>360</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>52</v>
-      </c>
-      <c r="D35">
-        <v>394</v>
-      </c>
-      <c r="E35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>52</v>
-      </c>
-      <c r="D36">
-        <v>400</v>
-      </c>
-      <c r="E36" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>55</v>
-      </c>
-      <c r="D37">
-        <v>403</v>
-      </c>
-      <c r="E37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>60</v>
-      </c>
-      <c r="D38">
-        <v>413</v>
-      </c>
-      <c r="E38" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>48</v>
-      </c>
-      <c r="D39">
-        <v>422</v>
-      </c>
-      <c r="E39" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>52</v>
-      </c>
-      <c r="D40">
-        <v>432</v>
-      </c>
-      <c r="E40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>52</v>
-      </c>
-      <c r="D41">
-        <v>440</v>
-      </c>
-      <c r="E41" t="s">
-        <v>25</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>55</v>
-      </c>
-      <c r="D42">
-        <v>442</v>
-      </c>
-      <c r="E42" t="s">
-        <v>22</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>60</v>
-      </c>
-      <c r="D43">
-        <v>451</v>
-      </c>
-      <c r="E43" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>48</v>
-      </c>
-      <c r="D44">
-        <v>461</v>
-      </c>
-      <c r="E44" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>52</v>
-      </c>
-      <c r="D45">
-        <v>470</v>
-      </c>
-      <c r="E45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>55</v>
-      </c>
-      <c r="D46">
-        <v>480</v>
-      </c>
-      <c r="E46" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>60</v>
-      </c>
-      <c r="D47">
-        <v>490</v>
-      </c>
-      <c r="E47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>48</v>
-      </c>
-      <c r="D48">
-        <v>499</v>
-      </c>
-      <c r="E48" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>52</v>
-      </c>
-      <c r="D49">
-        <v>509</v>
-      </c>
-      <c r="E49" t="s">
-        <v>22</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>55</v>
-      </c>
-      <c r="D50">
-        <v>518</v>
-      </c>
-      <c r="E50" t="s">
-        <v>25</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>55</v>
-      </c>
-      <c r="D51">
-        <v>520</v>
-      </c>
-      <c r="E51" t="s">
-        <v>22</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>60</v>
-      </c>
-      <c r="D52">
-        <v>528</v>
-      </c>
-      <c r="E52" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>48</v>
-      </c>
-      <c r="D53">
-        <v>538</v>
-      </c>
-      <c r="E53" t="s">
-        <v>22</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>52</v>
-      </c>
-      <c r="D54">
-        <v>547</v>
-      </c>
-      <c r="E54" t="s">
-        <v>19</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>53</v>
-      </c>
-      <c r="D55">
-        <v>560</v>
-      </c>
-      <c r="E55" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>56</v>
-      </c>
-      <c r="D56">
-        <v>566</v>
-      </c>
-      <c r="E56" t="s">
-        <v>23</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>55</v>
-      </c>
-      <c r="D57">
-        <v>571</v>
-      </c>
-      <c r="E57" t="s">
-        <v>20</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>56</v>
-      </c>
-      <c r="D58">
-        <v>600</v>
-      </c>
-      <c r="E58" t="s">
-        <v>23</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>60</v>
-      </c>
-      <c r="D59">
-        <v>605</v>
-      </c>
-      <c r="E59" t="s">
-        <v>22</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>48</v>
-      </c>
-      <c r="D60">
-        <v>614</v>
-      </c>
-      <c r="E60" t="s">
-        <v>18</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>52</v>
-      </c>
-      <c r="D61">
-        <v>624</v>
-      </c>
-      <c r="E61" t="s">
-        <v>18</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>60</v>
-      </c>
-      <c r="B62">
-        <v>55</v>
-      </c>
-      <c r="D62">
-        <v>634</v>
-      </c>
-      <c r="E62" t="s">
-        <v>16</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>61</v>
-      </c>
-      <c r="B63">
-        <v>55</v>
-      </c>
-      <c r="D63">
-        <v>640</v>
-      </c>
-      <c r="E63" t="s">
-        <v>25</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>62</v>
-      </c>
-      <c r="B64">
-        <v>60</v>
-      </c>
-      <c r="D64">
-        <v>643</v>
-      </c>
-      <c r="E64" t="s">
-        <v>18</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>63</v>
-      </c>
-      <c r="B65">
-        <v>48</v>
-      </c>
-      <c r="D65">
-        <v>653</v>
-      </c>
-      <c r="E65" t="s">
-        <v>22</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>64</v>
-      </c>
-      <c r="D66">
-        <v>662</v>
-      </c>
-      <c r="E66" t="s">
-        <v>17</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>65</v>
-      </c>
-      <c r="D67">
-        <v>680</v>
-      </c>
-      <c r="E67" t="s">
-        <v>25</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>66</v>
-      </c>
-      <c r="B68">
-        <v>60</v>
-      </c>
-      <c r="D68">
-        <v>682</v>
-      </c>
-      <c r="E68" t="s">
-        <v>22</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>67</v>
-      </c>
-      <c r="B69">
-        <v>48</v>
-      </c>
-      <c r="D69">
-        <v>691</v>
-      </c>
-      <c r="E69" t="s">
-        <v>18</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>68</v>
-      </c>
-      <c r="B70">
-        <v>52</v>
-      </c>
-      <c r="D70">
-        <v>701</v>
-      </c>
-      <c r="E70" t="s">
-        <v>22</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>69</v>
-      </c>
-      <c r="B71">
-        <v>55</v>
-      </c>
-      <c r="D71">
-        <v>710</v>
-      </c>
-      <c r="E71" t="s">
-        <v>18</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>70</v>
-      </c>
-      <c r="B72">
-        <v>60</v>
-      </c>
-      <c r="D72">
-        <v>720</v>
-      </c>
-      <c r="E72" t="s">
-        <v>18</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>71</v>
-      </c>
-      <c r="D73">
-        <v>730</v>
-      </c>
-      <c r="E73" t="s">
-        <v>17</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>72</v>
-      </c>
-      <c r="B74">
-        <v>55</v>
-      </c>
-      <c r="D74">
-        <v>749</v>
-      </c>
-      <c r="E74" t="s">
-        <v>22</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>73</v>
-      </c>
-      <c r="B75">
-        <v>60</v>
-      </c>
-      <c r="D75">
-        <v>758</v>
-      </c>
-      <c r="E75" t="s">
-        <v>25</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>74</v>
-      </c>
-      <c r="B76">
-        <v>60</v>
-      </c>
-      <c r="D76">
-        <v>760</v>
-      </c>
-      <c r="E76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>75</v>
-      </c>
-      <c r="B77">
-        <v>48</v>
-      </c>
-      <c r="D77">
-        <v>768</v>
-      </c>
-      <c r="E77" t="s">
-        <v>18</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>76</v>
-      </c>
-      <c r="D78">
-        <v>778</v>
-      </c>
-      <c r="E78" t="s">
-        <v>17</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>77</v>
-      </c>
-      <c r="D79">
-        <v>800</v>
-      </c>
-      <c r="E79" t="s">
-        <v>16</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>78</v>
-      </c>
-      <c r="B80">
-        <v>48</v>
-      </c>
-      <c r="D80">
-        <v>806</v>
-      </c>
-      <c r="E80" t="s">
-        <v>18</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>79</v>
-      </c>
-      <c r="D81">
-        <v>816</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>80</v>
-      </c>
-      <c r="D82">
-        <v>840</v>
-      </c>
-      <c r="E82" t="s">
-        <v>23</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>81</v>
-      </c>
-      <c r="B83">
-        <v>48</v>
-      </c>
-      <c r="D83">
-        <v>845</v>
-      </c>
-      <c r="E83" t="s">
-        <v>22</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>82</v>
-      </c>
-      <c r="B84">
-        <v>52</v>
-      </c>
-      <c r="D84">
-        <v>854</v>
-      </c>
-      <c r="E84" t="s">
-        <v>18</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>83</v>
-      </c>
-      <c r="B85">
-        <v>55</v>
-      </c>
-      <c r="D85">
-        <v>864</v>
-      </c>
-      <c r="E85" t="s">
-        <v>18</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>84</v>
-      </c>
-      <c r="B86">
-        <v>60</v>
-      </c>
-      <c r="D86">
-        <v>874</v>
-      </c>
-      <c r="E86" t="s">
-        <v>16</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="G86">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>85</v>
-      </c>
-      <c r="B87">
-        <v>60</v>
-      </c>
-      <c r="D87">
-        <v>880</v>
-      </c>
-      <c r="E87" t="s">
-        <v>25</v>
-      </c>
-      <c r="F87">
-        <v>1</v>
-      </c>
-      <c r="G87">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>86</v>
-      </c>
-      <c r="B88">
-        <v>48</v>
-      </c>
-      <c r="D88">
-        <v>883</v>
-      </c>
-      <c r="E88" t="s">
-        <v>18</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>87</v>
-      </c>
-      <c r="B89">
-        <v>52</v>
-      </c>
-      <c r="D89">
-        <v>893</v>
-      </c>
-      <c r="E89" t="s">
-        <v>22</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>88</v>
-      </c>
-      <c r="B90">
-        <v>55</v>
-      </c>
-      <c r="D90">
-        <v>902</v>
-      </c>
-      <c r="E90" t="s">
-        <v>18</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>89</v>
-      </c>
-      <c r="B91">
-        <v>60</v>
-      </c>
-      <c r="D91">
-        <v>912</v>
-      </c>
-      <c r="E91" t="s">
-        <v>22</v>
-      </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>90</v>
-      </c>
-      <c r="B92">
-        <v>60</v>
-      </c>
-      <c r="D92">
-        <v>920</v>
-      </c>
-      <c r="E92" t="s">
-        <v>25</v>
-      </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-      <c r="G92">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>91</v>
-      </c>
-      <c r="B93">
-        <v>48</v>
-      </c>
-      <c r="D93">
-        <v>922</v>
-      </c>
-      <c r="E93" t="s">
-        <v>14</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>92</v>
-      </c>
-      <c r="B94">
-        <v>52</v>
-      </c>
-      <c r="D94">
-        <v>934</v>
-      </c>
-      <c r="E94" t="s">
-        <v>19</v>
-      </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="G94">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>93</v>
-      </c>
-      <c r="B95">
-        <v>55</v>
-      </c>
-      <c r="D95">
-        <v>947</v>
-      </c>
-      <c r="E95" t="s">
-        <v>19</v>
-      </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>94</v>
-      </c>
-      <c r="B96">
-        <v>48</v>
-      </c>
-      <c r="D96">
-        <v>960</v>
-      </c>
-      <c r="E96" t="s">
-        <v>16</v>
-      </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>95</v>
-      </c>
-      <c r="B97">
-        <v>52</v>
-      </c>
-      <c r="D97">
-        <v>966</v>
-      </c>
-      <c r="E97" t="s">
-        <v>16</v>
-      </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="G97">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>96</v>
-      </c>
-      <c r="B98">
-        <v>55</v>
-      </c>
-      <c r="D98">
-        <v>973</v>
-      </c>
-      <c r="E98" t="s">
-        <v>16</v>
-      </c>
-      <c r="F98">
-        <v>0</v>
-      </c>
-      <c r="G98">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>97</v>
-      </c>
-      <c r="B99">
-        <v>48</v>
-      </c>
-      <c r="D99">
-        <v>979</v>
-      </c>
-      <c r="E99" t="s">
-        <v>25</v>
-      </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>98</v>
-      </c>
-      <c r="B100">
-        <v>52</v>
-      </c>
-      <c r="D100">
-        <v>982</v>
-      </c>
-      <c r="E100" t="s">
-        <v>25</v>
-      </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="G100">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>99</v>
-      </c>
-      <c r="B101">
-        <v>55</v>
-      </c>
-      <c r="D101">
-        <v>986</v>
-      </c>
-      <c r="E101" t="s">
-        <v>25</v>
-      </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
-      <c r="G101">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>100</v>
-      </c>
-      <c r="B102">
-        <v>48</v>
-      </c>
-      <c r="D102">
-        <v>989</v>
-      </c>
-      <c r="E102" t="s">
-        <v>25</v>
-      </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-      <c r="G102">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>101</v>
-      </c>
-      <c r="B103">
-        <v>52</v>
-      </c>
-      <c r="D103">
-        <v>992</v>
-      </c>
-      <c r="E103" t="s">
-        <v>25</v>
-      </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
-      <c r="G103">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>102</v>
-      </c>
-      <c r="B104">
-        <v>55</v>
-      </c>
-      <c r="D104">
-        <v>995</v>
-      </c>
-      <c r="E104" t="s">
-        <v>25</v>
-      </c>
-      <c r="F104">
-        <v>0</v>
-      </c>
-      <c r="G104">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>103</v>
-      </c>
-      <c r="B105">
-        <v>48</v>
-      </c>
-      <c r="D105">
-        <v>998</v>
-      </c>
-      <c r="E105" t="s">
-        <v>25</v>
-      </c>
-      <c r="F105">
-        <v>0</v>
-      </c>
-      <c r="G105">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>104</v>
-      </c>
-      <c r="B106">
-        <v>48</v>
-      </c>
-      <c r="D106">
-        <v>1000</v>
-      </c>
-      <c r="E106" t="s">
-        <v>22</v>
-      </c>
-      <c r="F106">
-        <v>1</v>
-      </c>
-      <c r="G106">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>105</v>
-      </c>
-      <c r="D107">
-        <v>1008</v>
-      </c>
-      <c r="E107" t="s">
-        <v>20</v>
-      </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>106</v>
-      </c>
-      <c r="B108">
-        <v>48</v>
-      </c>
-      <c r="D108">
-        <v>1037</v>
-      </c>
-      <c r="E108" t="s">
-        <v>25</v>
-      </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-      <c r="G108">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>107</v>
-      </c>
-      <c r="B109">
-        <v>48</v>
-      </c>
-      <c r="D109">
-        <v>1040</v>
-      </c>
-      <c r="E109" t="s">
-        <v>25</v>
-      </c>
-      <c r="F109">
-        <v>1</v>
-      </c>
-      <c r="G109">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>108</v>
-      </c>
-      <c r="B110">
-        <v>52</v>
-      </c>
-      <c r="D110">
-        <v>1042</v>
-      </c>
-      <c r="E110" t="s">
-        <v>25</v>
-      </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-      <c r="G110">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>109</v>
-      </c>
-      <c r="B111">
-        <v>55</v>
-      </c>
-      <c r="D111">
-        <v>1046</v>
-      </c>
-      <c r="E111" t="s">
-        <v>23</v>
-      </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-      <c r="G111">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>110</v>
-      </c>
-      <c r="B112">
-        <v>60</v>
-      </c>
-      <c r="D112">
-        <v>1051</v>
-      </c>
-      <c r="E112" t="s">
-        <v>23</v>
-      </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-      <c r="G112">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>111</v>
-      </c>
-      <c r="B113">
-        <v>48</v>
-      </c>
-      <c r="D113">
-        <v>1056</v>
-      </c>
-      <c r="E113" t="s">
-        <v>23</v>
-      </c>
-      <c r="F113">
-        <v>0</v>
-      </c>
-      <c r="G113">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>112</v>
-      </c>
-      <c r="B114">
-        <v>52</v>
-      </c>
-      <c r="D114">
-        <v>1061</v>
-      </c>
-      <c r="E114" t="s">
-        <v>23</v>
-      </c>
-      <c r="F114">
-        <v>0</v>
-      </c>
-      <c r="G114">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>113</v>
-      </c>
-      <c r="B115">
-        <v>59</v>
-      </c>
-      <c r="D115">
-        <v>1066</v>
-      </c>
-      <c r="E115" t="s">
-        <v>25</v>
-      </c>
-      <c r="F115">
-        <v>0</v>
-      </c>
-      <c r="G115">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>114</v>
-      </c>
-      <c r="B116">
-        <v>60</v>
-      </c>
-      <c r="D116">
-        <v>1070</v>
-      </c>
-      <c r="E116" t="s">
-        <v>23</v>
-      </c>
-      <c r="F116">
-        <v>0</v>
-      </c>
-      <c r="G116">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117">
-        <v>115</v>
-      </c>
-      <c r="B117">
-        <v>48</v>
-      </c>
-      <c r="D117">
-        <v>1075</v>
-      </c>
-      <c r="E117" t="s">
-        <v>23</v>
-      </c>
-      <c r="F117">
-        <v>0</v>
-      </c>
-      <c r="G117">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>116</v>
-      </c>
-      <c r="B118">
-        <v>53</v>
-      </c>
-      <c r="D118">
-        <v>1080</v>
-      </c>
-      <c r="E118" t="s">
-        <v>23</v>
-      </c>
-      <c r="F118">
-        <v>0</v>
-      </c>
-      <c r="G118">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>117</v>
-      </c>
-      <c r="B119">
-        <v>52</v>
-      </c>
-      <c r="D119">
-        <v>1085</v>
-      </c>
-      <c r="E119" t="s">
-        <v>23</v>
-      </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
-      <c r="G119">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>118</v>
-      </c>
-      <c r="B120">
-        <v>57</v>
-      </c>
-      <c r="D120">
-        <v>1090</v>
-      </c>
-      <c r="E120" t="s">
-        <v>25</v>
-      </c>
-      <c r="F120">
-        <v>0</v>
-      </c>
-      <c r="G120">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <v>119</v>
-      </c>
-      <c r="B121">
-        <v>55</v>
-      </c>
-      <c r="D121">
-        <v>1094</v>
-      </c>
-      <c r="E121" t="s">
-        <v>23</v>
-      </c>
-      <c r="F121">
-        <v>0</v>
-      </c>
-      <c r="G121">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122">
-        <v>120</v>
-      </c>
-      <c r="B122">
-        <v>59</v>
-      </c>
-      <c r="D122">
-        <v>1099</v>
-      </c>
-      <c r="E122" t="s">
-        <v>23</v>
-      </c>
-      <c r="F122">
-        <v>0</v>
-      </c>
-      <c r="G122">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>121</v>
-      </c>
-      <c r="B123">
-        <v>57</v>
-      </c>
-      <c r="D123">
-        <v>1104</v>
-      </c>
-      <c r="E123" t="s">
-        <v>23</v>
-      </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-      <c r="G123">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <v>122</v>
-      </c>
-      <c r="B124">
-        <v>60</v>
-      </c>
-      <c r="D124">
-        <v>1109</v>
-      </c>
-      <c r="E124" t="s">
-        <v>23</v>
-      </c>
-      <c r="F124">
-        <v>0</v>
-      </c>
-      <c r="G124">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>123</v>
-      </c>
-      <c r="B125">
-        <v>48</v>
-      </c>
-      <c r="D125">
-        <v>1114</v>
-      </c>
-      <c r="E125" t="s">
-        <v>25</v>
-      </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
-      <c r="G125">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>124</v>
-      </c>
-      <c r="B126">
-        <v>50</v>
-      </c>
-      <c r="D126">
-        <v>1116</v>
-      </c>
-      <c r="E126" t="s">
-        <v>25</v>
-      </c>
-      <c r="F126">
-        <v>0</v>
-      </c>
-      <c r="G126">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <v>125</v>
-      </c>
-      <c r="B127">
-        <v>52</v>
-      </c>
-      <c r="D127">
-        <v>1118</v>
-      </c>
-      <c r="E127" t="s">
-        <v>25</v>
-      </c>
-      <c r="F127">
-        <v>0</v>
-      </c>
-      <c r="G127">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <v>126</v>
-      </c>
-      <c r="B128">
-        <v>53</v>
-      </c>
-      <c r="D128">
-        <v>1121</v>
-      </c>
-      <c r="E128" t="s">
-        <v>25</v>
-      </c>
-      <c r="F128">
-        <v>0</v>
-      </c>
-      <c r="G128">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129">
-        <v>127</v>
-      </c>
-      <c r="B129">
-        <v>55</v>
-      </c>
-      <c r="D129">
-        <v>1123</v>
-      </c>
-      <c r="E129" t="s">
-        <v>25</v>
-      </c>
-      <c r="F129">
-        <v>0</v>
-      </c>
-      <c r="G129">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130">
-        <v>128</v>
-      </c>
-      <c r="B130">
-        <v>57</v>
-      </c>
-      <c r="D130">
-        <v>1126</v>
-      </c>
-      <c r="E130" t="s">
-        <v>25</v>
-      </c>
-      <c r="F130">
-        <v>0</v>
-      </c>
-      <c r="G130">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131">
-        <v>129</v>
-      </c>
-      <c r="B131">
-        <v>59</v>
-      </c>
-      <c r="D131">
-        <v>1128</v>
-      </c>
-      <c r="E131" t="s">
-        <v>25</v>
-      </c>
-      <c r="F131">
-        <v>0</v>
-      </c>
-      <c r="G131">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132">
-        <v>130</v>
-      </c>
-      <c r="B132">
-        <v>60</v>
-      </c>
-      <c r="D132">
-        <v>1130</v>
-      </c>
-      <c r="E132" t="s">
-        <v>25</v>
-      </c>
-      <c r="F132">
-        <v>0</v>
-      </c>
-      <c r="G132">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133">
-        <v>131</v>
-      </c>
-      <c r="B133">
-        <v>62</v>
-      </c>
-      <c r="D133">
-        <v>1133</v>
-      </c>
-      <c r="E133" t="s">
-        <v>25</v>
-      </c>
-      <c r="F133">
-        <v>0</v>
-      </c>
-      <c r="G133">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134">
-        <v>132</v>
-      </c>
-      <c r="B134">
-        <v>64</v>
-      </c>
-      <c r="D134">
-        <v>1135</v>
-      </c>
-      <c r="E134" t="s">
-        <v>25</v>
-      </c>
-      <c r="F134">
-        <v>0</v>
-      </c>
-      <c r="G134">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135">
-        <v>133</v>
-      </c>
-      <c r="B135">
-        <v>65</v>
-      </c>
-      <c r="D135">
-        <v>1138</v>
-      </c>
-      <c r="E135" t="s">
-        <v>25</v>
-      </c>
-      <c r="F135">
-        <v>0</v>
-      </c>
-      <c r="G135">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A136">
-        <v>134</v>
-      </c>
-      <c r="B136">
-        <v>67</v>
-      </c>
-      <c r="D136">
-        <v>1140</v>
-      </c>
-      <c r="E136" t="s">
-        <v>25</v>
-      </c>
-      <c r="F136">
-        <v>0</v>
-      </c>
-      <c r="G136">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A137">
-        <v>135</v>
-      </c>
-      <c r="B137">
-        <v>69</v>
-      </c>
-      <c r="D137">
-        <v>1142</v>
-      </c>
-      <c r="E137" t="s">
-        <v>25</v>
-      </c>
-      <c r="F137">
-        <v>0</v>
-      </c>
-      <c r="G137">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138">
-        <v>136</v>
-      </c>
-      <c r="B138">
-        <v>71</v>
-      </c>
-      <c r="D138">
-        <v>1145</v>
-      </c>
-      <c r="E138" t="s">
-        <v>25</v>
-      </c>
-      <c r="F138">
-        <v>0</v>
-      </c>
-      <c r="G138">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A139">
-        <v>137</v>
-      </c>
-      <c r="B139">
-        <v>72</v>
-      </c>
-      <c r="D139">
-        <v>1147</v>
-      </c>
-      <c r="E139" t="s">
-        <v>25</v>
-      </c>
-      <c r="F139">
-        <v>0</v>
-      </c>
-      <c r="G139">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140">
-        <v>138</v>
-      </c>
-      <c r="D140">
-        <v>1150</v>
-      </c>
-      <c r="E140" t="s">
-        <v>25</v>
-      </c>
-      <c r="F140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141">
-        <v>139</v>
-      </c>
-      <c r="B141">
-        <v>48</v>
-      </c>
-      <c r="D141">
-        <v>1152</v>
-      </c>
-      <c r="E141" t="s">
-        <v>25</v>
-      </c>
-      <c r="F141">
-        <v>0</v>
-      </c>
-      <c r="G141">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142">
-        <v>140</v>
-      </c>
-      <c r="B142">
-        <v>47</v>
-      </c>
-      <c r="D142">
-        <v>1154</v>
-      </c>
-      <c r="E142" t="s">
-        <v>25</v>
-      </c>
-      <c r="F142">
-        <v>0</v>
-      </c>
-      <c r="G142">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143">
-        <v>141</v>
-      </c>
-      <c r="B143">
-        <v>46</v>
-      </c>
-      <c r="D143">
-        <v>1157</v>
-      </c>
-      <c r="E143" t="s">
-        <v>25</v>
-      </c>
-      <c r="F143">
-        <v>0</v>
-      </c>
-      <c r="G143">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144">
-        <v>142</v>
-      </c>
-      <c r="B144">
-        <v>45</v>
-      </c>
-      <c r="D144">
-        <v>1159</v>
-      </c>
-      <c r="E144" t="s">
-        <v>25</v>
-      </c>
-      <c r="F144">
-        <v>0</v>
-      </c>
-      <c r="G144">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <v>143</v>
-      </c>
-      <c r="B145">
-        <v>45</v>
-      </c>
-      <c r="D145">
-        <v>1160</v>
-      </c>
-      <c r="E145" t="s">
-        <v>25</v>
-      </c>
-      <c r="F145">
-        <v>1</v>
-      </c>
-      <c r="G145">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146">
-        <v>144</v>
-      </c>
-      <c r="B146">
-        <v>44</v>
-      </c>
-      <c r="D146">
-        <v>1162</v>
-      </c>
-      <c r="E146" t="s">
-        <v>25</v>
-      </c>
-      <c r="F146">
-        <v>0</v>
-      </c>
-      <c r="G146">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147">
-        <v>145</v>
-      </c>
-      <c r="B147">
-        <v>43</v>
-      </c>
-      <c r="D147">
-        <v>1164</v>
-      </c>
-      <c r="E147" t="s">
-        <v>25</v>
-      </c>
-      <c r="F147">
-        <v>0</v>
-      </c>
-      <c r="G147">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148">
-        <v>146</v>
-      </c>
-      <c r="B148">
-        <v>42</v>
-      </c>
-      <c r="D148">
-        <v>1166</v>
-      </c>
-      <c r="E148" t="s">
-        <v>25</v>
-      </c>
-      <c r="F148">
-        <v>0</v>
-      </c>
-      <c r="G148">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149">
-        <v>147</v>
-      </c>
-      <c r="B149">
-        <v>41</v>
-      </c>
-      <c r="D149">
-        <v>1169</v>
-      </c>
-      <c r="E149" t="s">
-        <v>25</v>
-      </c>
-      <c r="F149">
-        <v>0</v>
-      </c>
-      <c r="G149">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150">
-        <v>148</v>
-      </c>
-      <c r="B150">
-        <v>40</v>
-      </c>
-      <c r="D150">
-        <v>1171</v>
-      </c>
-      <c r="E150" t="s">
-        <v>25</v>
-      </c>
-      <c r="F150">
-        <v>0</v>
-      </c>
-      <c r="G150">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151">
-        <v>149</v>
-      </c>
-      <c r="B151">
-        <v>41</v>
-      </c>
-      <c r="D151">
-        <v>1174</v>
-      </c>
-      <c r="E151" t="s">
-        <v>25</v>
-      </c>
-      <c r="F151">
-        <v>0</v>
-      </c>
-      <c r="G151">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152">
-        <v>150</v>
-      </c>
-      <c r="B152">
-        <v>43</v>
-      </c>
-      <c r="D152">
-        <v>1176</v>
-      </c>
-      <c r="E152" t="s">
-        <v>25</v>
-      </c>
-      <c r="F152">
-        <v>0</v>
-      </c>
-      <c r="G152">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153">
-        <v>151</v>
-      </c>
-      <c r="B153">
-        <v>45</v>
-      </c>
-      <c r="D153">
-        <v>1178</v>
-      </c>
-      <c r="E153" t="s">
-        <v>25</v>
-      </c>
-      <c r="F153">
-        <v>0</v>
-      </c>
-      <c r="G153">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154">
-        <v>152</v>
-      </c>
-      <c r="B154">
-        <v>47</v>
-      </c>
-      <c r="D154">
-        <v>1181</v>
-      </c>
-      <c r="E154" t="s">
-        <v>25</v>
-      </c>
-      <c r="F154">
-        <v>0</v>
-      </c>
-      <c r="G154">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A155">
-        <v>153</v>
-      </c>
-      <c r="B155">
-        <v>48</v>
-      </c>
-      <c r="D155">
-        <v>1183</v>
-      </c>
-      <c r="E155" t="s">
-        <v>25</v>
-      </c>
-      <c r="F155">
-        <v>0</v>
-      </c>
-      <c r="G155">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156">
-        <v>154</v>
-      </c>
-      <c r="B156">
-        <v>50</v>
-      </c>
-      <c r="D156">
-        <v>1186</v>
-      </c>
-      <c r="E156" t="s">
-        <v>25</v>
-      </c>
-      <c r="F156">
-        <v>0</v>
-      </c>
-      <c r="G156">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A157">
-        <v>155</v>
-      </c>
-      <c r="B157">
-        <v>49</v>
-      </c>
-      <c r="D157">
-        <v>1188</v>
-      </c>
-      <c r="E157" t="s">
-        <v>25</v>
-      </c>
-      <c r="F157">
-        <v>0</v>
-      </c>
-      <c r="G157">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A158">
-        <v>156</v>
-      </c>
-      <c r="B158">
-        <v>48</v>
-      </c>
-      <c r="D158">
-        <v>1190</v>
-      </c>
-      <c r="E158" t="s">
-        <v>18</v>
-      </c>
-      <c r="F158">
-        <v>0</v>
-      </c>
-      <c r="G158">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A159">
-        <v>157</v>
-      </c>
-      <c r="B159">
-        <v>52</v>
-      </c>
-      <c r="D159">
-        <v>1200</v>
-      </c>
-      <c r="E159" t="s">
-        <v>18</v>
-      </c>
-      <c r="F159">
-        <v>0</v>
-      </c>
-      <c r="G159">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A160">
-        <v>158</v>
-      </c>
-      <c r="B160">
-        <v>55</v>
-      </c>
-      <c r="D160">
-        <v>1210</v>
-      </c>
-      <c r="E160" t="s">
-        <v>22</v>
-      </c>
-      <c r="F160">
-        <v>0</v>
-      </c>
-      <c r="G160">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A161">
-        <v>159</v>
-      </c>
-      <c r="B161">
-        <v>60</v>
-      </c>
-      <c r="D161">
-        <v>1219</v>
-      </c>
-      <c r="E161" t="s">
-        <v>18</v>
-      </c>
-      <c r="F161">
-        <v>0</v>
-      </c>
-      <c r="G161">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A162">
-        <v>160</v>
-      </c>
-      <c r="B162">
-        <v>48</v>
-      </c>
-      <c r="D162">
-        <v>1229</v>
-      </c>
-      <c r="E162" t="s">
-        <v>22</v>
-      </c>
-      <c r="F162">
-        <v>0</v>
-      </c>
-      <c r="G162">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A163">
-        <v>161</v>
-      </c>
-      <c r="B163">
-        <v>52</v>
-      </c>
-      <c r="D163">
-        <v>1238</v>
-      </c>
-      <c r="E163" t="s">
-        <v>25</v>
-      </c>
-      <c r="F163">
-        <v>0</v>
-      </c>
-      <c r="G163">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A164">
-        <v>162</v>
-      </c>
-      <c r="B164">
-        <v>52</v>
-      </c>
-      <c r="D164">
-        <v>1240</v>
-      </c>
-      <c r="E164" t="s">
-        <v>22</v>
-      </c>
-      <c r="F164">
-        <v>1</v>
-      </c>
-      <c r="G164">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165">
-        <v>163</v>
-      </c>
-      <c r="B165">
-        <v>55</v>
-      </c>
-      <c r="D165">
-        <v>1248</v>
-      </c>
-      <c r="E165" t="s">
-        <v>18</v>
-      </c>
-      <c r="F165">
-        <v>0</v>
-      </c>
-      <c r="G165">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A166">
-        <v>164</v>
-      </c>
-      <c r="B166">
-        <v>60</v>
-      </c>
-      <c r="D166">
-        <v>1258</v>
-      </c>
-      <c r="E166" t="s">
-        <v>22</v>
-      </c>
-      <c r="F166">
-        <v>0</v>
-      </c>
-      <c r="G166">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A167">
-        <v>165</v>
-      </c>
-      <c r="B167">
-        <v>48</v>
-      </c>
-      <c r="D167">
-        <v>1267</v>
-      </c>
-      <c r="E167" t="s">
-        <v>18</v>
-      </c>
-      <c r="F167">
-        <v>0</v>
-      </c>
-      <c r="G167">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A168">
-        <v>166</v>
-      </c>
-      <c r="B168">
-        <v>52</v>
-      </c>
-      <c r="D168">
-        <v>1277</v>
-      </c>
-      <c r="E168" t="s">
-        <v>25</v>
-      </c>
-      <c r="F168">
-        <v>0</v>
-      </c>
-      <c r="G168">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169">
-        <v>167</v>
-      </c>
-      <c r="B169">
-        <v>52</v>
-      </c>
-      <c r="D169">
-        <v>1280</v>
-      </c>
-      <c r="E169" t="s">
-        <v>16</v>
-      </c>
-      <c r="F169">
-        <v>1</v>
-      </c>
-      <c r="G169">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A170">
-        <v>168</v>
-      </c>
-      <c r="B170">
-        <v>55</v>
-      </c>
-      <c r="D170">
-        <v>1286</v>
-      </c>
-      <c r="E170" t="s">
-        <v>18</v>
-      </c>
-      <c r="F170">
-        <v>0</v>
-      </c>
-      <c r="G170">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A171">
-        <v>169</v>
-      </c>
-      <c r="B171">
-        <v>60</v>
-      </c>
-      <c r="D171">
-        <v>1296</v>
-      </c>
-      <c r="E171" t="s">
-        <v>18</v>
-      </c>
-      <c r="F171">
-        <v>0</v>
-      </c>
-      <c r="G171">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A172">
-        <v>170</v>
-      </c>
-      <c r="B172">
-        <v>48</v>
-      </c>
-      <c r="D172">
-        <v>1306</v>
-      </c>
-      <c r="E172" t="s">
-        <v>22</v>
-      </c>
-      <c r="F172">
-        <v>0</v>
-      </c>
-      <c r="G172">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A173">
-        <v>171</v>
-      </c>
-      <c r="B173">
-        <v>52</v>
-      </c>
-      <c r="D173">
-        <v>1315</v>
-      </c>
-      <c r="E173" t="s">
-        <v>23</v>
-      </c>
-      <c r="F173">
-        <v>0</v>
-      </c>
-      <c r="G173">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A174">
-        <v>172</v>
-      </c>
-      <c r="B174">
-        <v>52</v>
-      </c>
-      <c r="D174">
-        <v>1320</v>
-      </c>
-      <c r="E174" t="s">
-        <v>23</v>
-      </c>
-      <c r="F174">
-        <v>1</v>
-      </c>
-      <c r="G174">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A175">
-        <v>173</v>
-      </c>
-      <c r="B175">
-        <v>55</v>
-      </c>
-      <c r="D175">
-        <v>1325</v>
-      </c>
-      <c r="E175" t="s">
-        <v>22</v>
-      </c>
-      <c r="F175">
-        <v>0</v>
-      </c>
-      <c r="G175">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A176">
-        <v>174</v>
-      </c>
-      <c r="B176">
-        <v>60</v>
-      </c>
-      <c r="D176">
-        <v>1334</v>
-      </c>
-      <c r="E176" t="s">
-        <v>18</v>
-      </c>
-      <c r="F176">
-        <v>0</v>
-      </c>
-      <c r="G176">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A177">
-        <v>175</v>
-      </c>
-      <c r="B177">
-        <v>48</v>
-      </c>
-      <c r="D177">
-        <v>1344</v>
-      </c>
-      <c r="E177" t="s">
-        <v>18</v>
-      </c>
-      <c r="F177">
-        <v>0</v>
-      </c>
-      <c r="G177">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A178">
-        <v>176</v>
-      </c>
-      <c r="B178">
-        <v>52</v>
-      </c>
-      <c r="D178">
-        <v>1354</v>
-      </c>
-      <c r="E178" t="s">
-        <v>16</v>
-      </c>
-      <c r="F178">
-        <v>0</v>
-      </c>
-      <c r="G178">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A179">
-        <v>177</v>
-      </c>
-      <c r="B179">
-        <v>52</v>
-      </c>
-      <c r="D179">
-        <v>1360</v>
-      </c>
-      <c r="E179" t="s">
-        <v>25</v>
-      </c>
-      <c r="F179">
-        <v>1</v>
-      </c>
-      <c r="G179">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A180">
-        <v>178</v>
-      </c>
-      <c r="B180">
-        <v>55</v>
-      </c>
-      <c r="D180">
-        <v>1363</v>
-      </c>
-      <c r="E180" t="s">
-        <v>18</v>
-      </c>
-      <c r="F180">
-        <v>0</v>
-      </c>
-      <c r="G180">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A181">
-        <v>179</v>
-      </c>
-      <c r="B181">
-        <v>60</v>
-      </c>
-      <c r="D181">
-        <v>1373</v>
-      </c>
-      <c r="E181" t="s">
-        <v>22</v>
-      </c>
-      <c r="F181">
-        <v>0</v>
-      </c>
-      <c r="G181">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A182">
-        <v>180</v>
-      </c>
-      <c r="B182">
-        <v>48</v>
-      </c>
-      <c r="D182">
-        <v>1382</v>
-      </c>
-      <c r="E182" t="s">
-        <v>18</v>
-      </c>
-      <c r="F182">
-        <v>0</v>
-      </c>
-      <c r="G182">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A183">
-        <v>181</v>
-      </c>
-      <c r="B183">
-        <v>52</v>
-      </c>
-      <c r="D183">
-        <v>1392</v>
-      </c>
-      <c r="E183" t="s">
-        <v>22</v>
-      </c>
-      <c r="F183">
-        <v>0</v>
-      </c>
-      <c r="G183">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A184">
-        <v>182</v>
-      </c>
-      <c r="B184">
-        <v>52</v>
-      </c>
-      <c r="D184">
-        <v>1400</v>
-      </c>
-      <c r="E184" t="s">
-        <v>25</v>
-      </c>
-      <c r="F184">
-        <v>1</v>
-      </c>
-      <c r="G184">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A185">
-        <v>183</v>
-      </c>
-      <c r="B185">
-        <v>55</v>
-      </c>
-      <c r="D185">
-        <v>1402</v>
-      </c>
-      <c r="E185" t="s">
-        <v>22</v>
-      </c>
-      <c r="F185">
-        <v>0</v>
-      </c>
-      <c r="G185">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A186">
-        <v>184</v>
-      </c>
-      <c r="B186">
-        <v>60</v>
-      </c>
-      <c r="D186">
-        <v>1411</v>
-      </c>
-      <c r="E186" t="s">
-        <v>18</v>
-      </c>
-      <c r="F186">
-        <v>0</v>
-      </c>
-      <c r="G186">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A187">
-        <v>185</v>
-      </c>
-      <c r="B187">
-        <v>48</v>
-      </c>
-      <c r="D187">
-        <v>1421</v>
-      </c>
-      <c r="E187" t="s">
-        <v>22</v>
-      </c>
-      <c r="F187">
-        <v>0</v>
-      </c>
-      <c r="G187">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A188">
-        <v>186</v>
-      </c>
-      <c r="B188">
-        <v>52</v>
-      </c>
-      <c r="D188">
-        <v>1430</v>
-      </c>
-      <c r="E188" t="s">
-        <v>18</v>
-      </c>
-      <c r="F188">
-        <v>0</v>
-      </c>
-      <c r="G188">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A189">
-        <v>187</v>
-      </c>
-      <c r="B189">
-        <v>55</v>
-      </c>
-      <c r="D189">
-        <v>1440</v>
-      </c>
-      <c r="E189" t="s">
-        <v>18</v>
-      </c>
-      <c r="F189">
-        <v>0</v>
-      </c>
-      <c r="G189">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A190">
-        <v>188</v>
-      </c>
-      <c r="B190">
-        <v>60</v>
-      </c>
-      <c r="D190">
-        <v>1450</v>
-      </c>
-      <c r="E190" t="s">
-        <v>22</v>
-      </c>
-      <c r="F190">
-        <v>0</v>
-      </c>
-      <c r="G190">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A191">
-        <v>189</v>
-      </c>
-      <c r="B191">
-        <v>48</v>
-      </c>
-      <c r="D191">
-        <v>1459</v>
-      </c>
-      <c r="E191" t="s">
-        <v>18</v>
-      </c>
-      <c r="F191">
-        <v>0</v>
-      </c>
-      <c r="G191">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A192">
-        <v>190</v>
-      </c>
-      <c r="B192">
-        <v>52</v>
-      </c>
-      <c r="D192">
-        <v>1469</v>
-      </c>
-      <c r="E192" t="s">
-        <v>22</v>
-      </c>
-      <c r="F192">
-        <v>0</v>
-      </c>
-      <c r="G192">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A193">
-        <v>191</v>
-      </c>
-      <c r="B193">
-        <v>55</v>
-      </c>
-      <c r="D193">
-        <v>1478</v>
-      </c>
-      <c r="E193" t="s">
-        <v>25</v>
-      </c>
-      <c r="F193">
-        <v>0</v>
-      </c>
-      <c r="G193">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A194">
-        <v>192</v>
-      </c>
-      <c r="B194">
-        <v>55</v>
-      </c>
-      <c r="D194">
-        <v>1480</v>
-      </c>
-      <c r="E194" t="s">
-        <v>22</v>
-      </c>
-      <c r="F194">
-        <v>1</v>
-      </c>
-      <c r="G194">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A195">
-        <v>193</v>
-      </c>
-      <c r="B195">
-        <v>60</v>
-      </c>
-      <c r="D195">
-        <v>1488</v>
-      </c>
-      <c r="E195" t="s">
-        <v>18</v>
-      </c>
-      <c r="F195">
-        <v>0</v>
-      </c>
-      <c r="G195">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A196">
-        <v>194</v>
-      </c>
-      <c r="B196">
-        <v>48</v>
-      </c>
-      <c r="D196">
-        <v>1498</v>
-      </c>
-      <c r="E196" t="s">
-        <v>22</v>
-      </c>
-      <c r="F196">
-        <v>0</v>
-      </c>
-      <c r="G196">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A197">
-        <v>195</v>
-      </c>
-      <c r="B197">
-        <v>52</v>
-      </c>
-      <c r="D197">
-        <v>1507</v>
-      </c>
-      <c r="E197" t="s">
-        <v>18</v>
-      </c>
-      <c r="F197">
-        <v>0</v>
-      </c>
-      <c r="G197">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A198">
-        <v>196</v>
-      </c>
-      <c r="B198">
-        <v>55</v>
-      </c>
-      <c r="D198">
-        <v>1517</v>
-      </c>
-      <c r="E198" t="s">
-        <v>25</v>
-      </c>
-      <c r="F198">
-        <v>0</v>
-      </c>
-      <c r="G198">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A199">
-        <v>197</v>
-      </c>
-      <c r="B199">
-        <v>55</v>
-      </c>
-      <c r="D199">
-        <v>1520</v>
-      </c>
-      <c r="E199" t="s">
-        <v>16</v>
-      </c>
-      <c r="F199">
-        <v>1</v>
-      </c>
-      <c r="G199">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A200">
-        <v>198</v>
-      </c>
-      <c r="B200">
-        <v>60</v>
-      </c>
-      <c r="D200">
-        <v>1526</v>
-      </c>
-      <c r="E200" t="s">
-        <v>18</v>
-      </c>
-      <c r="F200">
-        <v>0</v>
-      </c>
-      <c r="G200">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A201">
-        <v>199</v>
-      </c>
-      <c r="B201">
-        <v>48</v>
-      </c>
-      <c r="D201">
-        <v>1536</v>
-      </c>
-      <c r="E201" t="s">
-        <v>18</v>
-      </c>
-      <c r="F201">
-        <v>0</v>
-      </c>
-      <c r="G201">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A202">
-        <v>200</v>
-      </c>
-      <c r="B202">
-        <v>52</v>
-      </c>
-      <c r="D202">
-        <v>1546</v>
-      </c>
-      <c r="E202" t="s">
-        <v>22</v>
-      </c>
-      <c r="F202">
-        <v>0</v>
-      </c>
-      <c r="G202">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A203">
-        <v>201</v>
-      </c>
-      <c r="B203">
-        <v>55</v>
-      </c>
-      <c r="D203">
-        <v>1555</v>
-      </c>
-      <c r="E203" t="s">
-        <v>23</v>
-      </c>
-      <c r="F203">
-        <v>0</v>
-      </c>
-      <c r="G203">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A204">
-        <v>202</v>
-      </c>
-      <c r="B204">
-        <v>55</v>
-      </c>
-      <c r="D204">
-        <v>1560</v>
-      </c>
-      <c r="E204" t="s">
-        <v>23</v>
-      </c>
-      <c r="F204">
-        <v>1</v>
-      </c>
-      <c r="G204">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A205">
-        <v>203</v>
-      </c>
-      <c r="B205">
-        <v>60</v>
-      </c>
-      <c r="D205">
-        <v>1565</v>
-      </c>
-      <c r="E205" t="s">
-        <v>22</v>
-      </c>
-      <c r="F205">
-        <v>0</v>
-      </c>
-      <c r="G205">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A206">
-        <v>204</v>
-      </c>
-      <c r="B206">
-        <v>48</v>
-      </c>
-      <c r="D206">
-        <v>1574</v>
-      </c>
-      <c r="E206" t="s">
-        <v>18</v>
-      </c>
-      <c r="F206">
-        <v>0</v>
-      </c>
-      <c r="G206">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A207">
-        <v>205</v>
-      </c>
-      <c r="B207">
-        <v>52</v>
-      </c>
-      <c r="D207">
-        <v>1584</v>
-      </c>
-      <c r="E207" t="s">
-        <v>18</v>
-      </c>
-      <c r="F207">
-        <v>0</v>
-      </c>
-      <c r="G207">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A208">
-        <v>206</v>
-      </c>
-      <c r="B208">
-        <v>55</v>
-      </c>
-      <c r="D208">
-        <v>1594</v>
-      </c>
-      <c r="E208" t="s">
-        <v>16</v>
-      </c>
-      <c r="F208">
-        <v>0</v>
-      </c>
-      <c r="G208">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A209">
-        <v>207</v>
-      </c>
-      <c r="B209">
-        <v>55</v>
-      </c>
-      <c r="D209">
-        <v>1600</v>
-      </c>
-      <c r="E209" t="s">
-        <v>25</v>
-      </c>
-      <c r="F209">
-        <v>1</v>
-      </c>
-      <c r="G209">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A210">
-        <v>208</v>
-      </c>
-      <c r="B210">
-        <v>60</v>
-      </c>
-      <c r="D210">
-        <v>1603</v>
-      </c>
-      <c r="E210" t="s">
-        <v>18</v>
-      </c>
-      <c r="F210">
-        <v>0</v>
-      </c>
-      <c r="G210">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD84E5A-1FD4-43E1-98FA-38EFDF047C5B}">
   <dimension ref="A1:M184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4683,8 +582,6 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
       <c r="D2" s="1">
         <v>0</v>
       </c>
@@ -4694,7 +591,6 @@
       <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="1"/>
       <c r="H2" s="1">
         <v>0</v>
       </c>
@@ -4718,8 +614,6 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
       <c r="D3" s="1">
         <v>384</v>
       </c>
@@ -4729,7 +623,6 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="1"/>
       <c r="H3" s="1">
         <v>0</v>
       </c>
@@ -4756,7 +649,6 @@
       <c r="B4" s="1">
         <v>52</v>
       </c>
-      <c r="C4" s="1"/>
       <c r="D4" s="1">
         <v>480</v>
       </c>
@@ -4874,8 +766,6 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
       <c r="D7" s="1">
         <v>768</v>
       </c>
@@ -4885,7 +775,6 @@
       <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="1"/>
       <c r="H7" s="1">
         <v>0</v>
       </c>
@@ -4912,7 +801,6 @@
       <c r="B8" s="1">
         <v>48</v>
       </c>
-      <c r="C8" s="1"/>
       <c r="D8" s="1">
         <v>1152</v>
       </c>
@@ -5317,8 +1205,6 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
       <c r="D18" s="1">
         <v>2112</v>
       </c>
@@ -5328,7 +1214,6 @@
       <c r="F18" s="1">
         <v>0</v>
       </c>
-      <c r="G18" s="1"/>
       <c r="H18" s="1">
         <v>0</v>
       </c>
@@ -5762,8 +1647,6 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
       <c r="D29" s="1">
         <v>3072</v>
       </c>
@@ -5773,7 +1656,6 @@
       <c r="F29" s="1">
         <v>0</v>
       </c>
-      <c r="G29" s="1"/>
       <c r="H29" s="1">
         <v>0</v>
       </c>
@@ -5797,8 +1679,6 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
       <c r="D30" s="1">
         <v>3456</v>
       </c>
@@ -5808,7 +1688,6 @@
       <c r="F30" s="1">
         <v>0</v>
       </c>
-      <c r="G30" s="1"/>
       <c r="H30" s="1">
         <v>0</v>
       </c>
@@ -5832,8 +1711,6 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
       <c r="D31" s="1">
         <v>3840</v>
       </c>
@@ -5843,7 +1720,6 @@
       <c r="F31" s="1">
         <v>0</v>
       </c>
-      <c r="G31" s="1"/>
       <c r="H31" s="1">
         <v>0</v>
       </c>
@@ -5870,7 +1746,6 @@
       <c r="B32" s="1">
         <v>52</v>
       </c>
-      <c r="C32" s="1"/>
       <c r="D32" s="1">
         <v>3936</v>
       </c>
@@ -6521,8 +2396,6 @@
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
       <c r="D48" s="1">
         <v>5472</v>
       </c>
@@ -6532,7 +2405,6 @@
       <c r="F48" s="1">
         <v>0</v>
       </c>
-      <c r="G48" s="1"/>
       <c r="H48" s="1">
         <v>0</v>
       </c>
@@ -6597,8 +2469,6 @@
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
       <c r="D50" s="1">
         <v>5712</v>
       </c>
@@ -6608,7 +2478,6 @@
       <c r="F50" s="1">
         <v>0</v>
       </c>
-      <c r="G50" s="1"/>
       <c r="H50" s="1">
         <v>0</v>
       </c>
@@ -6632,8 +2501,6 @@
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
       <c r="D51" s="1">
         <v>5760</v>
       </c>
@@ -6643,7 +2510,6 @@
       <c r="F51" s="1">
         <v>0</v>
       </c>
-      <c r="G51" s="1"/>
       <c r="H51" s="1">
         <v>0</v>
       </c>
@@ -6913,8 +2779,6 @@
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
       <c r="D58" s="1">
         <v>6624</v>
       </c>
@@ -6924,7 +2788,6 @@
       <c r="F58" s="1">
         <v>0</v>
       </c>
-      <c r="G58" s="1"/>
       <c r="H58" s="1">
         <v>0</v>
       </c>
@@ -7153,8 +3016,6 @@
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
       <c r="D64" s="1">
         <v>7296</v>
       </c>
@@ -7164,7 +3025,6 @@
       <c r="F64" s="1">
         <v>0</v>
       </c>
-      <c r="G64" s="1"/>
       <c r="H64" s="1">
         <v>0</v>
       </c>
@@ -7311,8 +3171,6 @@
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
       <c r="D68" s="1">
         <v>7776</v>
       </c>
@@ -7322,7 +3180,6 @@
       <c r="F68" s="1">
         <v>0</v>
       </c>
-      <c r="G68" s="1"/>
       <c r="H68" s="1">
         <v>0</v>
       </c>
@@ -7387,8 +3244,6 @@
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
       <c r="D70" s="1">
         <v>8160</v>
       </c>
@@ -7398,7 +3253,6 @@
       <c r="F70" s="1">
         <v>0</v>
       </c>
-      <c r="G70" s="1"/>
       <c r="H70" s="1">
         <v>0</v>
       </c>
@@ -8283,8 +4137,6 @@
       <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
       <c r="D92" s="1">
         <v>10080</v>
       </c>
@@ -8294,7 +4146,6 @@
       <c r="F92" s="1">
         <v>0</v>
       </c>
-      <c r="G92" s="1"/>
       <c r="H92" s="1">
         <v>0</v>
       </c>
@@ -8649,7 +4500,6 @@
       <c r="B101" s="1">
         <v>48</v>
       </c>
-      <c r="C101" s="1"/>
       <c r="D101" s="1">
         <v>10752</v>
       </c>
@@ -9587,8 +5437,6 @@
       <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
       <c r="D124" s="1">
         <v>11496</v>
       </c>
@@ -9598,7 +5446,6 @@
       <c r="F124" s="1">
         <v>0</v>
       </c>
-      <c r="G124" s="1"/>
       <c r="H124" s="1">
         <v>0</v>
       </c>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI Projects\MIDI_Factory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B06088-CBEC-475E-93D6-0E9E69AF459E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BDF6E3-9987-49D9-9798-D23AAE4BB6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4185" yWindow="-10200" windowWidth="20490" windowHeight="9750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1500" yWindow="-10710" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="7" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="9" r:id="rId1"/>
+    <sheet name="test" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="25">
   <si>
     <t>note</t>
   </si>
@@ -218,6 +219,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{DF606CD9-9FB2-4B13-80D3-6B2EE810FDEE}" name="MyTable" displayName="MyTable" ref="A1:G184" totalsRowShown="0">
+  <autoFilter ref="A1:G184" xr:uid="{DF606CD9-9FB2-4B13-80D3-6B2EE810FDEE}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{A4B06106-F535-4F44-9117-85ED31AD409F}" name=" "/>
+    <tableColumn id="2" xr3:uid="{09F42CC6-6E1A-4EB2-83D9-EE46FBA56400}" name="note"/>
+    <tableColumn id="3" xr3:uid="{856DD3D5-4CDF-4B8B-AC8D-6F179864F7B1}" name="interval"/>
+    <tableColumn id="4" xr3:uid="{CD3196B1-A477-427F-8567-B2D039404256}" name="note_start_time"/>
+    <tableColumn id="5" xr3:uid="{931D4E04-1AAF-44B3-B4B7-8441F8E2D2DB}" name="duration"/>
+    <tableColumn id="6" xr3:uid="{C2B2A913-570F-49C7-9F4F-641169AEF22F}" name="slur"/>
+    <tableColumn id="7" xr3:uid="{EEE8727A-F886-4C84-9B9B-29405E531AD2}" name="velocity"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="136" xr:uid="{C32C5546-0D5C-4BFB-B7D2-24A59E2FA6B8}" name="MyTable" displayName="MyTable_1" ref="A1:M184" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:M184" xr:uid="{C32C5546-0D5C-4BFB-B7D2-24A59E2FA6B8}"/>
   <tableColumns count="13">
@@ -525,10 +542,4108 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD71C912-69CF-4936-85E5-637E7C408852}">
+  <dimension ref="A1:G184"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G184"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>384</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>384</v>
+      </c>
+      <c r="E3">
+        <v>96</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>52</v>
+      </c>
+      <c r="D4">
+        <v>480</v>
+      </c>
+      <c r="E4">
+        <v>144</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>55</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>624</v>
+      </c>
+      <c r="E5">
+        <v>48</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>60</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>672</v>
+      </c>
+      <c r="E6">
+        <v>96</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>768</v>
+      </c>
+      <c r="E7">
+        <v>384</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>48</v>
+      </c>
+      <c r="D8">
+        <v>1152</v>
+      </c>
+      <c r="E8">
+        <v>48</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>51.5</v>
+      </c>
+      <c r="C9">
+        <v>3.5</v>
+      </c>
+      <c r="D9">
+        <v>1200</v>
+      </c>
+      <c r="E9">
+        <v>192</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>55</v>
+      </c>
+      <c r="C10">
+        <v>3.5</v>
+      </c>
+      <c r="D10">
+        <v>1392</v>
+      </c>
+      <c r="E10">
+        <v>48</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>60</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>1440</v>
+      </c>
+      <c r="E11">
+        <v>96</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>48</v>
+      </c>
+      <c r="C12">
+        <v>-12</v>
+      </c>
+      <c r="D12">
+        <v>1536</v>
+      </c>
+      <c r="E12">
+        <v>48</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>52</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>1584</v>
+      </c>
+      <c r="E13">
+        <v>96</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>55</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>1680</v>
+      </c>
+      <c r="E14">
+        <v>144</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>60</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>1824</v>
+      </c>
+      <c r="E15">
+        <v>96</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>48</v>
+      </c>
+      <c r="C16">
+        <v>-12</v>
+      </c>
+      <c r="D16">
+        <v>1920</v>
+      </c>
+      <c r="E16">
+        <v>72</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>52</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>1992</v>
+      </c>
+      <c r="E17">
+        <v>120</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>2112</v>
+      </c>
+      <c r="E18">
+        <v>96</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>60</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>2208</v>
+      </c>
+      <c r="E19">
+        <v>48</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>48</v>
+      </c>
+      <c r="C20">
+        <v>-12</v>
+      </c>
+      <c r="D20">
+        <v>2256</v>
+      </c>
+      <c r="E20">
+        <v>48</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>48</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>2304</v>
+      </c>
+      <c r="E21">
+        <v>96</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>52</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>2400</v>
+      </c>
+      <c r="E22">
+        <v>48</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>55</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>2448</v>
+      </c>
+      <c r="E23">
+        <v>144</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>60</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>2592</v>
+      </c>
+      <c r="E24">
+        <v>96</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>48</v>
+      </c>
+      <c r="C25">
+        <v>-12</v>
+      </c>
+      <c r="D25">
+        <v>2688</v>
+      </c>
+      <c r="E25">
+        <v>96</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>52</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>2784</v>
+      </c>
+      <c r="E26">
+        <v>96</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>55</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>2880</v>
+      </c>
+      <c r="E27">
+        <v>96</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>60</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>2976</v>
+      </c>
+      <c r="E28">
+        <v>96</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <v>3072</v>
+      </c>
+      <c r="E29">
+        <v>384</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="D30">
+        <v>3456</v>
+      </c>
+      <c r="E30">
+        <v>384</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="D31">
+        <v>3840</v>
+      </c>
+      <c r="E31">
+        <v>96</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>52</v>
+      </c>
+      <c r="D32">
+        <v>3936</v>
+      </c>
+      <c r="E32">
+        <v>96</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>55</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>4032</v>
+      </c>
+      <c r="E33">
+        <v>96</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>60</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>4128</v>
+      </c>
+      <c r="E34">
+        <v>96</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>48</v>
+      </c>
+      <c r="C35">
+        <v>-12</v>
+      </c>
+      <c r="D35">
+        <v>4224</v>
+      </c>
+      <c r="E35">
+        <v>96</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>52</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>4320</v>
+      </c>
+      <c r="E36">
+        <v>96</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>55</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>4416</v>
+      </c>
+      <c r="E37">
+        <v>96</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>60</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>4512</v>
+      </c>
+      <c r="E38">
+        <v>96</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>48</v>
+      </c>
+      <c r="C39">
+        <v>-12</v>
+      </c>
+      <c r="D39">
+        <v>4608</v>
+      </c>
+      <c r="E39">
+        <v>96</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>52</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>4704</v>
+      </c>
+      <c r="E40">
+        <v>96</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>55</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>4800</v>
+      </c>
+      <c r="E41">
+        <v>96</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>60</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>4896</v>
+      </c>
+      <c r="E42">
+        <v>96</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>48</v>
+      </c>
+      <c r="C43">
+        <v>-12</v>
+      </c>
+      <c r="D43">
+        <v>4992</v>
+      </c>
+      <c r="E43">
+        <v>96</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>52</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>5088</v>
+      </c>
+      <c r="E44">
+        <v>96</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>55</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>5184</v>
+      </c>
+      <c r="E45">
+        <v>96</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>60</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>5280</v>
+      </c>
+      <c r="E46">
+        <v>96</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>48</v>
+      </c>
+      <c r="C47">
+        <v>-12</v>
+      </c>
+      <c r="D47">
+        <v>5376</v>
+      </c>
+      <c r="E47">
+        <v>96</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="D48">
+        <v>5472</v>
+      </c>
+      <c r="E48">
+        <v>192</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>56</v>
+      </c>
+      <c r="C49">
+        <v>8</v>
+      </c>
+      <c r="D49">
+        <v>5664</v>
+      </c>
+      <c r="E49">
+        <v>48</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="D50">
+        <v>5712</v>
+      </c>
+      <c r="E50">
+        <v>48</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="D51">
+        <v>5760</v>
+      </c>
+      <c r="E51">
+        <v>288</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>60</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>6048</v>
+      </c>
+      <c r="E52">
+        <v>96</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>48</v>
+      </c>
+      <c r="C53">
+        <v>-12</v>
+      </c>
+      <c r="D53">
+        <v>6144</v>
+      </c>
+      <c r="E53">
+        <v>96</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>52</v>
+      </c>
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>6240</v>
+      </c>
+      <c r="E54">
+        <v>96</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>55</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>6336</v>
+      </c>
+      <c r="E55">
+        <v>96</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>60</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>6432</v>
+      </c>
+      <c r="E56">
+        <v>96</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>48</v>
+      </c>
+      <c r="C57">
+        <v>-12</v>
+      </c>
+      <c r="D57">
+        <v>6528</v>
+      </c>
+      <c r="E57">
+        <v>96</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="D58">
+        <v>6624</v>
+      </c>
+      <c r="E58">
+        <v>192</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>60</v>
+      </c>
+      <c r="C59">
+        <v>12</v>
+      </c>
+      <c r="D59">
+        <v>6816</v>
+      </c>
+      <c r="E59">
+        <v>96</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>48</v>
+      </c>
+      <c r="C60">
+        <v>-12</v>
+      </c>
+      <c r="D60">
+        <v>6912</v>
+      </c>
+      <c r="E60">
+        <v>96</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>52</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>7008</v>
+      </c>
+      <c r="E61">
+        <v>96</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>55</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>7104</v>
+      </c>
+      <c r="E62">
+        <v>96</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>60</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>7200</v>
+      </c>
+      <c r="E63">
+        <v>96</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="D64">
+        <v>7296</v>
+      </c>
+      <c r="E64">
+        <v>192</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>55</v>
+      </c>
+      <c r="C65">
+        <v>-5</v>
+      </c>
+      <c r="D65">
+        <v>7488</v>
+      </c>
+      <c r="E65">
+        <v>96</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>60</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66">
+        <v>7584</v>
+      </c>
+      <c r="E66">
+        <v>96</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>48</v>
+      </c>
+      <c r="C67">
+        <v>-12</v>
+      </c>
+      <c r="D67">
+        <v>7680</v>
+      </c>
+      <c r="E67">
+        <v>96</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="D68">
+        <v>7776</v>
+      </c>
+      <c r="E68">
+        <v>288</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>48</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>8064</v>
+      </c>
+      <c r="E69">
+        <v>96</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="D70">
+        <v>8160</v>
+      </c>
+      <c r="E70">
+        <v>288</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>48</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>8448</v>
+      </c>
+      <c r="E71">
+        <v>96</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>52</v>
+      </c>
+      <c r="C72">
+        <v>4</v>
+      </c>
+      <c r="D72">
+        <v>8544</v>
+      </c>
+      <c r="E72">
+        <v>96</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>55</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>8640</v>
+      </c>
+      <c r="E73">
+        <v>96</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>60</v>
+      </c>
+      <c r="C74">
+        <v>5</v>
+      </c>
+      <c r="D74">
+        <v>8736</v>
+      </c>
+      <c r="E74">
+        <v>96</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>48</v>
+      </c>
+      <c r="C75">
+        <v>-12</v>
+      </c>
+      <c r="D75">
+        <v>8832</v>
+      </c>
+      <c r="E75">
+        <v>96</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>52</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>8928</v>
+      </c>
+      <c r="E76">
+        <v>96</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>55</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>9024</v>
+      </c>
+      <c r="E77">
+        <v>96</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>60</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+      <c r="D78">
+        <v>9120</v>
+      </c>
+      <c r="E78">
+        <v>96</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>48</v>
+      </c>
+      <c r="C79">
+        <v>-12</v>
+      </c>
+      <c r="D79">
+        <v>9216</v>
+      </c>
+      <c r="E79">
+        <v>128</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>52</v>
+      </c>
+      <c r="C80">
+        <v>4</v>
+      </c>
+      <c r="D80">
+        <v>9344</v>
+      </c>
+      <c r="E80">
+        <v>128</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>55</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81">
+        <v>9472</v>
+      </c>
+      <c r="E81">
+        <v>128</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>48</v>
+      </c>
+      <c r="C82">
+        <v>-7</v>
+      </c>
+      <c r="D82">
+        <v>9600</v>
+      </c>
+      <c r="E82">
+        <v>64</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>52</v>
+      </c>
+      <c r="C83">
+        <v>4</v>
+      </c>
+      <c r="D83">
+        <v>9664</v>
+      </c>
+      <c r="E83">
+        <v>64</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>55</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84">
+        <v>9728</v>
+      </c>
+      <c r="E84">
+        <v>64</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>48</v>
+      </c>
+      <c r="C85">
+        <v>-7</v>
+      </c>
+      <c r="D85">
+        <v>9792</v>
+      </c>
+      <c r="E85">
+        <v>32</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>52</v>
+      </c>
+      <c r="C86">
+        <v>4</v>
+      </c>
+      <c r="D86">
+        <v>9824</v>
+      </c>
+      <c r="E86">
+        <v>32</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>55</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87">
+        <v>9856</v>
+      </c>
+      <c r="E87">
+        <v>32</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>48</v>
+      </c>
+      <c r="C88">
+        <v>-7</v>
+      </c>
+      <c r="D88">
+        <v>9888</v>
+      </c>
+      <c r="E88">
+        <v>32</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>52</v>
+      </c>
+      <c r="C89">
+        <v>4</v>
+      </c>
+      <c r="D89">
+        <v>9920</v>
+      </c>
+      <c r="E89">
+        <v>32</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>55</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90">
+        <v>9952</v>
+      </c>
+      <c r="E90">
+        <v>32</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>48</v>
+      </c>
+      <c r="C91">
+        <v>-7</v>
+      </c>
+      <c r="D91">
+        <v>9984</v>
+      </c>
+      <c r="E91">
+        <v>96</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="D92">
+        <v>10080</v>
+      </c>
+      <c r="E92">
+        <v>288</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>48</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>10368</v>
+      </c>
+      <c r="E93">
+        <v>48</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>52</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+      <c r="D94">
+        <v>10416</v>
+      </c>
+      <c r="E94">
+        <v>48</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>55</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95">
+        <v>10464</v>
+      </c>
+      <c r="E95">
+        <v>48</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>60</v>
+      </c>
+      <c r="C96">
+        <v>5</v>
+      </c>
+      <c r="D96">
+        <v>10512</v>
+      </c>
+      <c r="E96">
+        <v>48</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>48</v>
+      </c>
+      <c r="C97">
+        <v>-12</v>
+      </c>
+      <c r="D97">
+        <v>10560</v>
+      </c>
+      <c r="E97">
+        <v>48</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>52</v>
+      </c>
+      <c r="C98">
+        <v>4</v>
+      </c>
+      <c r="D98">
+        <v>10608</v>
+      </c>
+      <c r="E98">
+        <v>48</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>59</v>
+      </c>
+      <c r="C99">
+        <v>7</v>
+      </c>
+      <c r="D99">
+        <v>10656</v>
+      </c>
+      <c r="E99">
+        <v>48</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>60</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>10704</v>
+      </c>
+      <c r="E100">
+        <v>48</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>48</v>
+      </c>
+      <c r="C101">
+        <v>-12</v>
+      </c>
+      <c r="D101">
+        <v>10752</v>
+      </c>
+      <c r="E101">
+        <v>48</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>53</v>
+      </c>
+      <c r="C102">
+        <v>5</v>
+      </c>
+      <c r="D102">
+        <v>10800</v>
+      </c>
+      <c r="E102">
+        <v>48</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>52</v>
+      </c>
+      <c r="C103">
+        <v>-1</v>
+      </c>
+      <c r="D103">
+        <v>10848</v>
+      </c>
+      <c r="E103">
+        <v>48</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>57</v>
+      </c>
+      <c r="C104">
+        <v>5</v>
+      </c>
+      <c r="D104">
+        <v>10896</v>
+      </c>
+      <c r="E104">
+        <v>48</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>55</v>
+      </c>
+      <c r="C105">
+        <v>-2</v>
+      </c>
+      <c r="D105">
+        <v>10944</v>
+      </c>
+      <c r="E105">
+        <v>48</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>59</v>
+      </c>
+      <c r="C106">
+        <v>4</v>
+      </c>
+      <c r="D106">
+        <v>10992</v>
+      </c>
+      <c r="E106">
+        <v>48</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>57</v>
+      </c>
+      <c r="C107">
+        <v>-2</v>
+      </c>
+      <c r="D107">
+        <v>11040</v>
+      </c>
+      <c r="E107">
+        <v>48</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>60</v>
+      </c>
+      <c r="C108">
+        <v>3</v>
+      </c>
+      <c r="D108">
+        <v>11088</v>
+      </c>
+      <c r="E108">
+        <v>48</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>48</v>
+      </c>
+      <c r="C109">
+        <v>-12</v>
+      </c>
+      <c r="D109">
+        <v>11136</v>
+      </c>
+      <c r="E109">
+        <v>24</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>50</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+      <c r="D110">
+        <v>11160</v>
+      </c>
+      <c r="E110">
+        <v>24</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>52</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+      <c r="D111">
+        <v>11184</v>
+      </c>
+      <c r="E111">
+        <v>24</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>53</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>11208</v>
+      </c>
+      <c r="E112">
+        <v>24</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>55</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+      <c r="D113">
+        <v>11232</v>
+      </c>
+      <c r="E113">
+        <v>24</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>57</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114">
+        <v>11256</v>
+      </c>
+      <c r="E114">
+        <v>24</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>59</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+      <c r="D115">
+        <v>11280</v>
+      </c>
+      <c r="E115">
+        <v>24</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>60</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <v>11304</v>
+      </c>
+      <c r="E116">
+        <v>24</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>62</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+      <c r="D117">
+        <v>11328</v>
+      </c>
+      <c r="E117">
+        <v>24</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>64</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118">
+        <v>11352</v>
+      </c>
+      <c r="E118">
+        <v>24</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>65</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>11376</v>
+      </c>
+      <c r="E119">
+        <v>24</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>67</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+      <c r="D120">
+        <v>11400</v>
+      </c>
+      <c r="E120">
+        <v>24</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>69</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+      <c r="D121">
+        <v>11424</v>
+      </c>
+      <c r="E121">
+        <v>24</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>71</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+      <c r="D122">
+        <v>11448</v>
+      </c>
+      <c r="E122">
+        <v>24</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>72</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>11472</v>
+      </c>
+      <c r="E123">
+        <v>24</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="D124">
+        <v>11496</v>
+      </c>
+      <c r="E124">
+        <v>24</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>48</v>
+      </c>
+      <c r="C125">
+        <v>-24</v>
+      </c>
+      <c r="D125">
+        <v>11520</v>
+      </c>
+      <c r="E125">
+        <v>24</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>47</v>
+      </c>
+      <c r="C126">
+        <v>-1</v>
+      </c>
+      <c r="D126">
+        <v>11544</v>
+      </c>
+      <c r="E126">
+        <v>24</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>46</v>
+      </c>
+      <c r="C127">
+        <v>-1</v>
+      </c>
+      <c r="D127">
+        <v>11568</v>
+      </c>
+      <c r="E127">
+        <v>24</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>45</v>
+      </c>
+      <c r="C128">
+        <v>-1</v>
+      </c>
+      <c r="D128">
+        <v>11592</v>
+      </c>
+      <c r="E128">
+        <v>24</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>44</v>
+      </c>
+      <c r="C129">
+        <v>-1</v>
+      </c>
+      <c r="D129">
+        <v>11616</v>
+      </c>
+      <c r="E129">
+        <v>24</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>43</v>
+      </c>
+      <c r="C130">
+        <v>-1</v>
+      </c>
+      <c r="D130">
+        <v>11640</v>
+      </c>
+      <c r="E130">
+        <v>24</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>42</v>
+      </c>
+      <c r="C131">
+        <v>-1</v>
+      </c>
+      <c r="D131">
+        <v>11664</v>
+      </c>
+      <c r="E131">
+        <v>24</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>41</v>
+      </c>
+      <c r="C132">
+        <v>-1</v>
+      </c>
+      <c r="D132">
+        <v>11688</v>
+      </c>
+      <c r="E132">
+        <v>24</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>40</v>
+      </c>
+      <c r="C133">
+        <v>-1</v>
+      </c>
+      <c r="D133">
+        <v>11712</v>
+      </c>
+      <c r="E133">
+        <v>24</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>41</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>11736</v>
+      </c>
+      <c r="E134">
+        <v>24</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>43</v>
+      </c>
+      <c r="C135">
+        <v>2</v>
+      </c>
+      <c r="D135">
+        <v>11760</v>
+      </c>
+      <c r="E135">
+        <v>24</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>45</v>
+      </c>
+      <c r="C136">
+        <v>2</v>
+      </c>
+      <c r="D136">
+        <v>11784</v>
+      </c>
+      <c r="E136">
+        <v>24</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>47</v>
+      </c>
+      <c r="C137">
+        <v>2</v>
+      </c>
+      <c r="D137">
+        <v>11808</v>
+      </c>
+      <c r="E137">
+        <v>24</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>48</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>11832</v>
+      </c>
+      <c r="E138">
+        <v>24</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>50</v>
+      </c>
+      <c r="C139">
+        <v>2</v>
+      </c>
+      <c r="D139">
+        <v>11856</v>
+      </c>
+      <c r="E139">
+        <v>24</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>49</v>
+      </c>
+      <c r="C140">
+        <v>-1</v>
+      </c>
+      <c r="D140">
+        <v>11880</v>
+      </c>
+      <c r="E140">
+        <v>24</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>48</v>
+      </c>
+      <c r="C141">
+        <v>-1</v>
+      </c>
+      <c r="D141">
+        <v>11904</v>
+      </c>
+      <c r="E141">
+        <v>96</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>52</v>
+      </c>
+      <c r="C142">
+        <v>4</v>
+      </c>
+      <c r="D142">
+        <v>12000</v>
+      </c>
+      <c r="E142">
+        <v>96</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>55</v>
+      </c>
+      <c r="C143">
+        <v>3</v>
+      </c>
+      <c r="D143">
+        <v>12096</v>
+      </c>
+      <c r="E143">
+        <v>96</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>60</v>
+      </c>
+      <c r="C144">
+        <v>5</v>
+      </c>
+      <c r="D144">
+        <v>12192</v>
+      </c>
+      <c r="E144">
+        <v>96</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>48</v>
+      </c>
+      <c r="C145">
+        <v>-12</v>
+      </c>
+      <c r="D145">
+        <v>12288</v>
+      </c>
+      <c r="E145">
+        <v>96</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>52</v>
+      </c>
+      <c r="C146">
+        <v>4</v>
+      </c>
+      <c r="D146">
+        <v>12384</v>
+      </c>
+      <c r="E146">
+        <v>96</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>55</v>
+      </c>
+      <c r="C147">
+        <v>3</v>
+      </c>
+      <c r="D147">
+        <v>12480</v>
+      </c>
+      <c r="E147">
+        <v>96</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>60</v>
+      </c>
+      <c r="C148">
+        <v>5</v>
+      </c>
+      <c r="D148">
+        <v>12576</v>
+      </c>
+      <c r="E148">
+        <v>96</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>48</v>
+      </c>
+      <c r="C149">
+        <v>-12</v>
+      </c>
+      <c r="D149">
+        <v>12672</v>
+      </c>
+      <c r="E149">
+        <v>96</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>52</v>
+      </c>
+      <c r="C150">
+        <v>4</v>
+      </c>
+      <c r="D150">
+        <v>12768</v>
+      </c>
+      <c r="E150">
+        <v>96</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>55</v>
+      </c>
+      <c r="C151">
+        <v>3</v>
+      </c>
+      <c r="D151">
+        <v>12864</v>
+      </c>
+      <c r="E151">
+        <v>96</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>60</v>
+      </c>
+      <c r="C152">
+        <v>5</v>
+      </c>
+      <c r="D152">
+        <v>12960</v>
+      </c>
+      <c r="E152">
+        <v>96</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>48</v>
+      </c>
+      <c r="C153">
+        <v>-12</v>
+      </c>
+      <c r="D153">
+        <v>13056</v>
+      </c>
+      <c r="E153">
+        <v>96</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>52</v>
+      </c>
+      <c r="C154">
+        <v>4</v>
+      </c>
+      <c r="D154">
+        <v>13152</v>
+      </c>
+      <c r="E154">
+        <v>96</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>55</v>
+      </c>
+      <c r="C155">
+        <v>3</v>
+      </c>
+      <c r="D155">
+        <v>13248</v>
+      </c>
+      <c r="E155">
+        <v>96</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>60</v>
+      </c>
+      <c r="C156">
+        <v>5</v>
+      </c>
+      <c r="D156">
+        <v>13344</v>
+      </c>
+      <c r="E156">
+        <v>96</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>48</v>
+      </c>
+      <c r="C157">
+        <v>-12</v>
+      </c>
+      <c r="D157">
+        <v>13440</v>
+      </c>
+      <c r="E157">
+        <v>96</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>52</v>
+      </c>
+      <c r="C158">
+        <v>4</v>
+      </c>
+      <c r="D158">
+        <v>13536</v>
+      </c>
+      <c r="E158">
+        <v>96</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>55</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
+      </c>
+      <c r="D159">
+        <v>13632</v>
+      </c>
+      <c r="E159">
+        <v>96</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>60</v>
+      </c>
+      <c r="C160">
+        <v>5</v>
+      </c>
+      <c r="D160">
+        <v>13728</v>
+      </c>
+      <c r="E160">
+        <v>96</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>48</v>
+      </c>
+      <c r="C161">
+        <v>-12</v>
+      </c>
+      <c r="D161">
+        <v>13824</v>
+      </c>
+      <c r="E161">
+        <v>96</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>52</v>
+      </c>
+      <c r="C162">
+        <v>4</v>
+      </c>
+      <c r="D162">
+        <v>13920</v>
+      </c>
+      <c r="E162">
+        <v>96</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>55</v>
+      </c>
+      <c r="C163">
+        <v>3</v>
+      </c>
+      <c r="D163">
+        <v>14016</v>
+      </c>
+      <c r="E163">
+        <v>96</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>60</v>
+      </c>
+      <c r="C164">
+        <v>5</v>
+      </c>
+      <c r="D164">
+        <v>14112</v>
+      </c>
+      <c r="E164">
+        <v>96</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>48</v>
+      </c>
+      <c r="C165">
+        <v>-12</v>
+      </c>
+      <c r="D165">
+        <v>14208</v>
+      </c>
+      <c r="E165">
+        <v>96</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>52</v>
+      </c>
+      <c r="C166">
+        <v>4</v>
+      </c>
+      <c r="D166">
+        <v>14304</v>
+      </c>
+      <c r="E166">
+        <v>96</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>55</v>
+      </c>
+      <c r="C167">
+        <v>3</v>
+      </c>
+      <c r="D167">
+        <v>14400</v>
+      </c>
+      <c r="E167">
+        <v>96</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>60</v>
+      </c>
+      <c r="C168">
+        <v>5</v>
+      </c>
+      <c r="D168">
+        <v>14496</v>
+      </c>
+      <c r="E168">
+        <v>96</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>48</v>
+      </c>
+      <c r="C169">
+        <v>-12</v>
+      </c>
+      <c r="D169">
+        <v>14592</v>
+      </c>
+      <c r="E169">
+        <v>96</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>52</v>
+      </c>
+      <c r="C170">
+        <v>4</v>
+      </c>
+      <c r="D170">
+        <v>14688</v>
+      </c>
+      <c r="E170">
+        <v>96</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>55</v>
+      </c>
+      <c r="C171">
+        <v>3</v>
+      </c>
+      <c r="D171">
+        <v>14784</v>
+      </c>
+      <c r="E171">
+        <v>96</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>60</v>
+      </c>
+      <c r="C172">
+        <v>5</v>
+      </c>
+      <c r="D172">
+        <v>14880</v>
+      </c>
+      <c r="E172">
+        <v>96</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>48</v>
+      </c>
+      <c r="C173">
+        <v>-12</v>
+      </c>
+      <c r="D173">
+        <v>14976</v>
+      </c>
+      <c r="E173">
+        <v>96</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>52</v>
+      </c>
+      <c r="C174">
+        <v>4</v>
+      </c>
+      <c r="D174">
+        <v>15072</v>
+      </c>
+      <c r="E174">
+        <v>96</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>55</v>
+      </c>
+      <c r="C175">
+        <v>3</v>
+      </c>
+      <c r="D175">
+        <v>15168</v>
+      </c>
+      <c r="E175">
+        <v>96</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>60</v>
+      </c>
+      <c r="C176">
+        <v>5</v>
+      </c>
+      <c r="D176">
+        <v>15264</v>
+      </c>
+      <c r="E176">
+        <v>96</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>48</v>
+      </c>
+      <c r="C177">
+        <v>-12</v>
+      </c>
+      <c r="D177">
+        <v>15360</v>
+      </c>
+      <c r="E177">
+        <v>96</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>52</v>
+      </c>
+      <c r="C178">
+        <v>4</v>
+      </c>
+      <c r="D178">
+        <v>15456</v>
+      </c>
+      <c r="E178">
+        <v>96</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>55</v>
+      </c>
+      <c r="C179">
+        <v>3</v>
+      </c>
+      <c r="D179">
+        <v>15552</v>
+      </c>
+      <c r="E179">
+        <v>96</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>60</v>
+      </c>
+      <c r="C180">
+        <v>5</v>
+      </c>
+      <c r="D180">
+        <v>15648</v>
+      </c>
+      <c r="E180">
+        <v>96</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>48</v>
+      </c>
+      <c r="C181">
+        <v>-12</v>
+      </c>
+      <c r="D181">
+        <v>15744</v>
+      </c>
+      <c r="E181">
+        <v>96</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>52</v>
+      </c>
+      <c r="C182">
+        <v>4</v>
+      </c>
+      <c r="D182">
+        <v>15840</v>
+      </c>
+      <c r="E182">
+        <v>96</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>55</v>
+      </c>
+      <c r="C183">
+        <v>3</v>
+      </c>
+      <c r="D183">
+        <v>15936</v>
+      </c>
+      <c r="E183">
+        <v>96</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>60</v>
+      </c>
+      <c r="C184">
+        <v>5</v>
+      </c>
+      <c r="D184">
+        <v>16032</v>
+      </c>
+      <c r="E184">
+        <v>95</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD84E5A-1FD4-43E1-98FA-38EFDF047C5B}">
   <dimension ref="A1:M184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
